--- a/data/menu_afternoon_tea.xlsx
+++ b/data/menu_afternoon_tea.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="23820" tabRatio="500"/>
+    <workbookView windowWidth="25600" windowHeight="23820" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -171,7 +171,7 @@
     <t>soft drink</t>
   </si>
   <si>
-    <t>images/product/Cocktail/RT_milk_tea.png</t>
+    <t>images/product/Mocktail/RT_milk_tea.png</t>
   </si>
   <si>
     <t>Sweet+Sour</t>
@@ -192,7 +192,7 @@
     <t>白日梦</t>
   </si>
   <si>
-    <t>images/product/Cocktail/Daydream.png</t>
+    <t>images/product/Mocktail/Daydream.png</t>
   </si>
   <si>
     <t>Earl grey tea/Pineapple juice/Lavender syrup/lemon juice</t>
@@ -1488,8 +1488,8 @@
   <sheetPr/>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelRow="7"/>
@@ -1715,8 +1715,8 @@
   <sheetPr/>
   <dimension ref="A1:R63"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1729,7 +1729,7 @@
     <col min="8" max="8" width="11.5178571428571" style="3"/>
     <col min="9" max="9" width="17.0625" style="3" customWidth="1"/>
     <col min="10" max="10" width="13.6339285714286" style="1" customWidth="1"/>
-    <col min="11" max="11" width="39.1607142857143" style="1" customWidth="1"/>
+    <col min="11" max="11" width="57.2857142857143" style="1" customWidth="1"/>
     <col min="12" max="12" width="30.8214285714286" style="1" customWidth="1"/>
     <col min="13" max="14" width="50.5982142857143" style="1" customWidth="1"/>
     <col min="15" max="16" width="11.5178571428571" style="1"/>

--- a/data/menu_afternoon_tea.xlsx
+++ b/data/menu_afternoon_tea.xlsx
@@ -1871,7 +1871,7 @@
   <dimension ref="A1:R67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>

--- a/data/menu_afternoon_tea.xlsx
+++ b/data/menu_afternoon_tea.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="11020" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="25600" windowHeight="11020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -477,10 +477,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -511,6 +511,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -526,24 +534,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,77 +550,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,6 +574,74 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -649,7 +649,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -670,13 +670,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,121 +832,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,37 +844,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,11 +958,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1008,21 +1014,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1037,141 +1028,150 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1595,8 +1595,8 @@
   <sheetPr/>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="A1:I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -1870,7 +1870,7 @@
   <sheetPr/>
   <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A7" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>

--- a/data/menu_afternoon_tea.xlsx
+++ b/data/menu_afternoon_tea.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="11020" tabRatio="500"/>
+    <workbookView windowWidth="25600" windowHeight="7060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156">
   <si>
     <t>id</t>
   </si>
@@ -201,10 +201,10 @@
     <t>Sweet+Sour</t>
   </si>
   <si>
-    <t>Bacardi Rum/Lime juice/Monin strawberry syr</t>
-  </si>
-  <si>
-    <t>红茶/鲜奶/薰衣草糖浆</t>
+    <t>Bacardi Rum/Lime juice/Monin strawberry syrup</t>
+  </si>
+  <si>
+    <t>朗姆/青柠汁/莫林草莓糖浆</t>
   </si>
   <si>
     <t>0</t>
@@ -423,34 +423,49 @@
     <t>17</t>
   </si>
   <si>
+    <t>Kiwi Banana Mousse</t>
+  </si>
+  <si>
+    <t>猕猴桃香蕉慕斯</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>42/份</t>
+  </si>
+  <si>
+    <t>dessert</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>White cheese lemon pomelo Mousse</t>
+  </si>
+  <si>
+    <t>白乳酪柠檬柚慕斯</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>Opera</t>
   </si>
   <si>
     <t>歌剧院</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>42/份</t>
-  </si>
-  <si>
-    <t>dessert</t>
-  </si>
-  <si>
     <t>巧克力味,橙子味</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>Valrhono Caramel Chocklate Ban</t>
   </si>
   <si>
     <t>法芙娜焦糖巧克力</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
   <si>
     <t>Pumpkin Cheese Cake</t>
@@ -476,11 +491,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -511,9 +526,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,48 +587,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -581,23 +604,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,14 +619,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,14 +633,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,8 +647,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -676,66 +691,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -748,19 +703,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,19 +769,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,13 +787,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,31 +829,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,15 +959,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -973,6 +979,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -983,6 +1007,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1013,165 +1052,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1595,8 +1610,8 @@
   <sheetPr/>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -1868,10 +1883,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:R67"/>
+  <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2733,7 +2748,7 @@
       </c>
       <c r="R17" s="9"/>
     </row>
-    <row r="18" ht="16.35" customHeight="1" spans="1:18">
+    <row r="18" ht="20" customHeight="1" spans="1:18">
       <c r="A18" s="4" t="s">
         <v>134</v>
       </c>
@@ -2744,30 +2759,28 @@
         <v>136</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H18" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" s="15" t="b">
-        <v>0</v>
+        <v>139</v>
+      </c>
+      <c r="H18" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="12" t="b">
+        <v>1</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K18" s="6"/>
-      <c r="L18" s="8" t="s">
-        <v>140</v>
-      </c>
+      <c r="L18" s="8"/>
       <c r="M18" s="21"/>
       <c r="N18" s="22"/>
       <c r="O18" s="7" t="s">
@@ -2779,9 +2792,9 @@
       <c r="Q18" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="R18" s="9"/>
-    </row>
-    <row r="19" ht="16.35" customHeight="1" spans="1:18">
+      <c r="R18" s="21"/>
+    </row>
+    <row r="19" ht="20" customHeight="1" spans="1:18">
       <c r="A19" s="4" t="s">
         <v>141</v>
       </c>
@@ -2792,28 +2805,28 @@
         <v>143</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H19" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" s="15" t="b">
-        <v>0</v>
+        <v>139</v>
+      </c>
+      <c r="H19" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="12" t="b">
+        <v>1</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
+      <c r="L19" s="8"/>
       <c r="M19" s="21"/>
       <c r="N19" s="22"/>
       <c r="O19" s="7" t="s">
@@ -2825,13 +2838,13 @@
       <c r="Q19" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="R19" s="9"/>
+      <c r="R19" s="21"/>
     </row>
     <row r="20" ht="16.35" customHeight="1" spans="1:18">
       <c r="A20" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>145</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -2844,10 +2857,10 @@
         <v>55</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H20" s="15" t="b">
         <v>0</v>
@@ -2856,10 +2869,12 @@
         <v>0</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
+      <c r="L20" s="8" t="s">
+        <v>147</v>
+      </c>
       <c r="M20" s="21"/>
       <c r="N20" s="22"/>
       <c r="O20" s="7" t="s">
@@ -2878,10 +2893,10 @@
         <v>77</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>36</v>
@@ -2890,10 +2905,10 @@
         <v>55</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H21" s="15" t="b">
         <v>0</v>
@@ -2902,12 +2917,12 @@
         <v>0</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="6"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="22"/>
       <c r="O21" s="7" t="s">
         <v>63</v>
       </c>
@@ -2923,11 +2938,11 @@
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>149</v>
+      <c r="B22" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>36</v>
@@ -2936,10 +2951,10 @@
         <v>55</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H22" s="15" t="b">
         <v>0</v>
@@ -2948,12 +2963,12 @@
         <v>0</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="6"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="22"/>
       <c r="O22" s="7" t="s">
         <v>63</v>
       </c>
@@ -2966,49 +2981,101 @@
       <c r="R22" s="9"/>
     </row>
     <row r="23" ht="16.35" customHeight="1" spans="1:18">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="25"/>
+      <c r="A23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="H23" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q23" s="24" t="s">
+        <v>65</v>
+      </c>
       <c r="R23" s="9"/>
     </row>
     <row r="24" ht="16.35" customHeight="1" spans="1:18">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="25"/>
+      <c r="A24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="H24" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q24" s="24" t="s">
+        <v>65</v>
+      </c>
       <c r="R24" s="9"/>
     </row>
     <row r="25" ht="16.35" customHeight="1" spans="1:18">
       <c r="A25" s="9"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
@@ -3019,16 +3086,16 @@
       <c r="K25" s="9"/>
       <c r="L25" s="19"/>
       <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
+      <c r="N25" s="23"/>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
-      <c r="Q25" s="16"/>
+      <c r="Q25" s="25"/>
       <c r="R25" s="9"/>
     </row>
     <row r="26" ht="16.35" customHeight="1" spans="1:18">
       <c r="A26" s="9"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
@@ -3039,10 +3106,10 @@
       <c r="K26" s="9"/>
       <c r="L26" s="19"/>
       <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
+      <c r="N26" s="23"/>
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
-      <c r="Q26" s="16"/>
+      <c r="Q26" s="25"/>
       <c r="R26" s="9"/>
     </row>
     <row r="27" ht="16.35" customHeight="1" spans="1:18">
@@ -3139,7 +3206,7 @@
       <c r="K31" s="9"/>
       <c r="L31" s="19"/>
       <c r="M31" s="9"/>
-      <c r="N31" s="23"/>
+      <c r="N31" s="9"/>
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
       <c r="Q31" s="16"/>
@@ -3159,7 +3226,7 @@
       <c r="K32" s="9"/>
       <c r="L32" s="19"/>
       <c r="M32" s="9"/>
-      <c r="N32" s="23"/>
+      <c r="N32" s="9"/>
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
       <c r="Q32" s="16"/>
@@ -3377,7 +3444,7 @@
       <c r="I43" s="16"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
-      <c r="L43" s="20"/>
+      <c r="L43" s="19"/>
       <c r="M43" s="9"/>
       <c r="N43" s="23"/>
       <c r="O43" s="9"/>
@@ -3397,7 +3464,7 @@
       <c r="I44" s="16"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
-      <c r="L44" s="20"/>
+      <c r="L44" s="19"/>
       <c r="M44" s="9"/>
       <c r="N44" s="23"/>
       <c r="O44" s="9"/>
@@ -3507,7 +3574,7 @@
     </row>
     <row r="50" ht="16.35" customHeight="1" spans="1:18">
       <c r="A50" s="9"/>
-      <c r="B50" s="10"/>
+      <c r="B50" s="11"/>
       <c r="C50" s="10"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
@@ -3527,7 +3594,7 @@
     </row>
     <row r="51" ht="16.35" customHeight="1" spans="1:18">
       <c r="A51" s="9"/>
-      <c r="B51" s="10"/>
+      <c r="B51" s="11"/>
       <c r="C51" s="10"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
@@ -3665,7 +3732,7 @@
       <c r="Q57" s="16"/>
       <c r="R57" s="9"/>
     </row>
-    <row r="58" ht="15.2" spans="1:18">
+    <row r="58" ht="16.35" customHeight="1" spans="1:18">
       <c r="A58" s="9"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -3685,7 +3752,7 @@
       <c r="Q58" s="16"/>
       <c r="R58" s="9"/>
     </row>
-    <row r="59" ht="15.2" spans="1:18">
+    <row r="59" ht="16.35" customHeight="1" spans="1:18">
       <c r="A59" s="9"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -3865,6 +3932,46 @@
       <c r="Q67" s="16"/>
       <c r="R67" s="9"/>
     </row>
+    <row r="68" ht="15.2" spans="1:18">
+      <c r="A68" s="9"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="20"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="23"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="16"/>
+      <c r="R68" s="9"/>
+    </row>
+    <row r="69" ht="15.2" spans="1:18">
+      <c r="A69" s="9"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="20"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="23"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="16"/>
+      <c r="R69" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.02430555555556" bottom="1.02430555555556" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/data/menu_afternoon_tea.xlsx
+++ b/data/menu_afternoon_tea.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="7060" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="25600" windowHeight="12460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154">
   <si>
     <t>id</t>
   </si>
@@ -472,12 +472,6 @@
   </si>
   <si>
     <t>南瓜芝士蛋糕</t>
-  </si>
-  <si>
-    <t>Tarte au fromage framboise</t>
-  </si>
-  <si>
-    <t>覆盆子芝士塔</t>
   </si>
   <si>
     <t>Match Cake</t>
@@ -1883,10 +1877,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:R69"/>
+  <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -3027,49 +3021,23 @@
       <c r="R23" s="9"/>
     </row>
     <row r="24" ht="16.35" customHeight="1" spans="1:18">
-      <c r="A24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="H24" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q24" s="24" t="s">
-        <v>65</v>
-      </c>
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="25"/>
       <c r="R24" s="9"/>
     </row>
     <row r="25" ht="16.35" customHeight="1" spans="1:18">
@@ -3094,8 +3062,8 @@
     </row>
     <row r="26" ht="16.35" customHeight="1" spans="1:18">
       <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="10"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
@@ -3106,10 +3074,10 @@
       <c r="K26" s="9"/>
       <c r="L26" s="19"/>
       <c r="M26" s="9"/>
-      <c r="N26" s="23"/>
+      <c r="N26" s="9"/>
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
-      <c r="Q26" s="25"/>
+      <c r="Q26" s="16"/>
       <c r="R26" s="9"/>
     </row>
     <row r="27" ht="16.35" customHeight="1" spans="1:18">
@@ -3226,7 +3194,7 @@
       <c r="K32" s="9"/>
       <c r="L32" s="19"/>
       <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
+      <c r="N32" s="23"/>
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
       <c r="Q32" s="16"/>
@@ -3464,7 +3432,7 @@
       <c r="I44" s="16"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
-      <c r="L44" s="19"/>
+      <c r="L44" s="20"/>
       <c r="M44" s="9"/>
       <c r="N44" s="23"/>
       <c r="O44" s="9"/>
@@ -3594,7 +3562,7 @@
     </row>
     <row r="51" ht="16.35" customHeight="1" spans="1:18">
       <c r="A51" s="9"/>
-      <c r="B51" s="11"/>
+      <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
@@ -3752,7 +3720,7 @@
       <c r="Q58" s="16"/>
       <c r="R58" s="9"/>
     </row>
-    <row r="59" ht="16.35" customHeight="1" spans="1:18">
+    <row r="59" ht="15.2" spans="1:18">
       <c r="A59" s="9"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -3952,26 +3920,6 @@
       <c r="Q68" s="16"/>
       <c r="R68" s="9"/>
     </row>
-    <row r="69" ht="15.2" spans="1:18">
-      <c r="A69" s="9"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="20"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="23"/>
-      <c r="O69" s="9"/>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="16"/>
-      <c r="R69" s="9"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.02430555555556" bottom="1.02430555555556" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/data/menu_afternoon_tea.xlsx
+++ b/data/menu_afternoon_tea.xlsx
@@ -1880,7 +1880,7 @@
   <dimension ref="A1:R68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:A23"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>

--- a/data/menu_afternoon_tea.xlsx
+++ b/data/menu_afternoon_tea.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153">
   <si>
     <t>id</t>
   </si>
@@ -427,9 +427,6 @@
   </si>
   <si>
     <t>猕猴桃香蕉慕斯</t>
-  </si>
-  <si>
-    <t>4A</t>
   </si>
   <si>
     <t>42</t>
@@ -1879,8 +1876,8 @@
   <sheetPr/>
   <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2753,16 +2750,16 @@
         <v>136</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F18" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G18" s="13" t="s">
         <v>138</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>139</v>
       </c>
       <c r="H18" s="12" t="b">
         <v>1</v>
@@ -2771,7 +2768,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="8"/>
@@ -2790,25 +2787,25 @@
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:18">
       <c r="A19" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="D19" s="6" t="s">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F19" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>138</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>139</v>
       </c>
       <c r="H19" s="12" t="b">
         <v>1</v>
@@ -2817,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="8"/>
@@ -2836,13 +2833,13 @@
     </row>
     <row r="20" ht="16.35" customHeight="1" spans="1:18">
       <c r="A20" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>36</v>
@@ -2851,23 +2848,23 @@
         <v>55</v>
       </c>
       <c r="F20" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="H20" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="H20" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M20" s="21"/>
       <c r="N20" s="22"/>
@@ -2887,10 +2884,10 @@
         <v>77</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>36</v>
@@ -2899,19 +2896,19 @@
         <v>55</v>
       </c>
       <c r="F21" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="H21" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="H21" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
@@ -2933,10 +2930,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>36</v>
@@ -2945,19 +2942,19 @@
         <v>55</v>
       </c>
       <c r="F22" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="H22" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="H22" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
@@ -2979,10 +2976,10 @@
         <v>23</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>36</v>
@@ -2991,19 +2988,19 @@
         <v>55</v>
       </c>
       <c r="F23" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G23" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="H23" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="H23" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>

--- a/data/menu_afternoon_tea.xlsx
+++ b/data/menu_afternoon_tea.xlsx
@@ -1876,8 +1876,8 @@
   <sheetPr/>
   <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:D19"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2761,11 +2761,11 @@
       <c r="G18" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="H18" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="12" t="b">
-        <v>1</v>
+      <c r="H18" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>139</v>
@@ -2807,11 +2807,11 @@
       <c r="G19" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="H19" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="12" t="b">
-        <v>1</v>
+      <c r="H19" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>139</v>

--- a/data/menu_afternoon_tea.xlsx
+++ b/data/menu_afternoon_tea.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12460" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="25600" windowHeight="11020" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -482,11 +482,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -511,53 +511,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,9 +539,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,44 +587,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -654,10 +609,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -676,43 +676,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,67 +688,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,43 +718,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,7 +736,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,30 +949,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -988,6 +964,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -998,21 +998,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1043,141 +1028,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1602,7 +1602,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -1876,8 +1876,8 @@
   <sheetPr/>
   <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:I19"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>

--- a/data/menu_afternoon_tea.xlsx
+++ b/data/menu_afternoon_tea.xlsx
@@ -482,11 +482,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -511,13 +511,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -532,18 +525,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -562,9 +547,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,16 +593,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,24 +632,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,32 +648,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -676,13 +676,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,7 +718,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,7 +796,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,103 +838,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,25 +850,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,17 +949,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -981,24 +987,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1018,17 +1020,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1043,141 +1034,150 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1876,8 +1876,8 @@
   <sheetPr/>
   <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>

--- a/data/menu_afternoon_tea.xlsx
+++ b/data/menu_afternoon_tea.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160">
   <si>
     <t>id</t>
   </si>
@@ -279,33 +279,33 @@
     <t>RT奶茶</t>
   </si>
   <si>
+    <t>soft drink</t>
+  </si>
+  <si>
+    <t>images/product/Mocktail/RT_milk_tea.png</t>
+  </si>
+  <si>
+    <t>Earl grey tea/Fresh milk/Lavender syrup/Cream</t>
+  </si>
+  <si>
+    <t>红茶/鲜奶/薰衣草糖浆/奶油</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Daydream</t>
+  </si>
+  <si>
+    <t>白日梦</t>
+  </si>
+  <si>
     <t>38</t>
   </si>
   <si>
     <t>38/Glass</t>
   </si>
   <si>
-    <t>soft drink</t>
-  </si>
-  <si>
-    <t>images/product/Mocktail/RT_milk_tea.png</t>
-  </si>
-  <si>
-    <t>Earl grey tea/Fresh milk/Lavender syrup/Cream</t>
-  </si>
-  <si>
-    <t>红茶/鲜奶/薰衣草糖浆/奶油</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Daydream</t>
-  </si>
-  <si>
-    <t>白日梦</t>
-  </si>
-  <si>
     <t>images/product/Mocktail/Daydream.png</t>
   </si>
   <si>
@@ -438,6 +438,9 @@
     <t>dessert</t>
   </si>
   <si>
+    <t>images/product/Dessert/猕猴桃香蕉慕斯.png</t>
+  </si>
+  <si>
     <t>18</t>
   </si>
   <si>
@@ -447,16 +450,28 @@
     <t>白乳酪柠檬柚慕斯</t>
   </si>
   <si>
+    <t>images/product/Dessert/白乳酪柠檬柚慕斯.png</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>Opera</t>
-  </si>
-  <si>
-    <t>歌剧院</t>
-  </si>
-  <si>
-    <t>巧克力味,橙子味</t>
+    <t>Opera（Chocolate）</t>
+  </si>
+  <si>
+    <t>歌剧院（巧克力）</t>
+  </si>
+  <si>
+    <t>images/product/Dessert/歌剧院巧克力味.png</t>
+  </si>
+  <si>
+    <t>Opera（Orange）</t>
+  </si>
+  <si>
+    <t>歌剧院（橙子）</t>
+  </si>
+  <si>
+    <t>images/product/Dessert/歌剧院橙子味.png</t>
   </si>
   <si>
     <t>Valrhono Caramel Chocklate Ban</t>
@@ -471,10 +486,16 @@
     <t>南瓜芝士蛋糕</t>
   </si>
   <si>
+    <t>images/product/Dessert/南瓜芝士蛋糕.png</t>
+  </si>
+  <si>
     <t>Match Cake</t>
   </si>
   <si>
     <t>五十铃抹茶蛋糕</t>
+  </si>
+  <si>
+    <t>images/product/Dessert/五十铃抹茶蛋糕.png</t>
   </si>
 </sst>
 </file>
@@ -483,10 +504,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -524,14 +545,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -540,30 +553,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,8 +569,23 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -602,10 +608,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -618,7 +624,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,9 +645,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -647,17 +674,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -670,13 +691,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,43 +739,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,13 +781,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,85 +793,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,6 +812,66 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,15 +967,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -966,6 +978,50 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -987,35 +1043,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1034,154 +1064,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1200,7 +1221,13 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1222,6 +1249,15 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1241,8 +1277,17 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1602,264 +1647,264 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="11.5178571428571" style="27"/>
-    <col min="3" max="3" width="41.6607142857143" style="27" customWidth="1"/>
-    <col min="4" max="4" width="37.1785714285714" style="27" customWidth="1"/>
-    <col min="5" max="5" width="59.4732142857143" style="27" customWidth="1"/>
-    <col min="6" max="6" width="22.3571428571429" style="28" customWidth="1"/>
-    <col min="7" max="7" width="11.5178571428571" style="28"/>
-    <col min="8" max="8" width="16.2589285714286" style="27" customWidth="1"/>
-    <col min="9" max="9" width="18.1964285714286" style="27" customWidth="1"/>
-    <col min="10" max="1025" width="11.5178571428571" style="26"/>
-    <col min="1026" max="16384" width="9" style="26"/>
+    <col min="1" max="2" width="11.5178571428571" style="35"/>
+    <col min="3" max="3" width="41.6607142857143" style="35" customWidth="1"/>
+    <col min="4" max="4" width="37.1785714285714" style="35" customWidth="1"/>
+    <col min="5" max="5" width="59.4732142857143" style="35" customWidth="1"/>
+    <col min="6" max="6" width="22.3571428571429" style="36" customWidth="1"/>
+    <col min="7" max="7" width="11.5178571428571" style="36"/>
+    <col min="8" max="8" width="16.2589285714286" style="35" customWidth="1"/>
+    <col min="9" max="9" width="18.1964285714286" style="35" customWidth="1"/>
+    <col min="10" max="1025" width="11.5178571428571" style="34"/>
+    <col min="1026" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" s="26" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="30" t="s">
+    <row r="1" s="34" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="37" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="26" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A2" s="31" t="s">
+    <row r="2" s="34" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A2" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="39">
         <v>1</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="36" t="b">
+      <c r="F2" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="G2" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="38"/>
-    </row>
-    <row r="3" s="26" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A3" s="31" t="s">
+      <c r="G2" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="39"/>
+      <c r="I2" s="46"/>
+    </row>
+    <row r="3" s="34" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="39">
         <v>2</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="36" t="b">
+      <c r="E3" s="39"/>
+      <c r="F3" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="G3" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="38"/>
-    </row>
-    <row r="4" s="26" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A4" s="31" t="s">
+      <c r="G3" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="39"/>
+      <c r="I3" s="46"/>
+    </row>
+    <row r="4" s="34" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A4" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="39">
         <v>1</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="36" t="b">
+      <c r="F4" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="38"/>
-    </row>
-    <row r="5" s="26" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A5" s="31" t="s">
+      <c r="G4" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="39"/>
+      <c r="I4" s="46"/>
+    </row>
+    <row r="5" s="34" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A5" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36" t="b">
+      <c r="E5" s="43"/>
+      <c r="F5" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="G5" s="36" t="b">
+      <c r="G5" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="38"/>
-    </row>
-    <row r="6" s="26" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A6" s="31" t="s">
+      <c r="H5" s="39"/>
+      <c r="I5" s="46"/>
+    </row>
+    <row r="6" s="34" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A6" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="39">
         <v>2</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="38"/>
-    </row>
-    <row r="7" s="26" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A7" s="31" t="s">
+      <c r="E6" s="39"/>
+      <c r="F6" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="39"/>
+      <c r="I6" s="46"/>
+    </row>
+    <row r="7" s="34" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A7" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="38"/>
-    </row>
-    <row r="8" s="26" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A8" s="32" t="s">
+      <c r="E7" s="39"/>
+      <c r="F7" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="39"/>
+      <c r="I7" s="46"/>
+    </row>
+    <row r="8" s="34" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A8" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="39">
         <v>2</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="31"/>
-      <c r="I8" s="38"/>
-    </row>
-    <row r="9" s="26" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A9" s="31" t="s">
+      <c r="E8" s="39"/>
+      <c r="F8" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="39"/>
+      <c r="I8" s="46"/>
+    </row>
+    <row r="9" s="34" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A9" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="39">
         <v>1</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="36" t="b">
+      <c r="F9" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="G9" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="38"/>
-    </row>
-    <row r="10" s="26" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A10" s="33" t="s">
+      <c r="G9" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="39"/>
+      <c r="I9" s="46"/>
+    </row>
+    <row r="10" s="34" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A10" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="39"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="41"/>
+      <c r="I10" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.02430555555556" bottom="1.02430555555556" header="0.7875" footer="0.7875"/>
@@ -1874,10 +1919,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:R68"/>
+  <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1921,10 +1966,10 @@
       <c r="G1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="14" t="s">
         <v>45</v>
       </c>
       <c r="J1" s="4" t="s">
@@ -1933,13 +1978,13 @@
       <c r="K1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="22" t="s">
         <v>49</v>
       </c>
       <c r="O1" s="4" t="s">
@@ -1948,7 +1993,7 @@
       <c r="P1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="14" t="s">
         <v>52</v>
       </c>
       <c r="R1" s="4" t="s">
@@ -1974,13 +2019,13 @@
       <c r="F2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="14" t="b">
+      <c r="H2" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="16" t="b">
         <v>0</v>
       </c>
       <c r="J2" s="6" t="s">
@@ -1989,13 +2034,13 @@
       <c r="K2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="27" t="s">
         <v>62</v>
       </c>
       <c r="O2" s="6" t="s">
@@ -2004,7 +2049,7 @@
       <c r="P2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="16" t="s">
         <v>65</v>
       </c>
       <c r="R2" s="4"/>
@@ -2028,13 +2073,13 @@
       <c r="F3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="14" t="b">
+      <c r="H3" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="16" t="b">
         <v>0</v>
       </c>
       <c r="J3" s="6" t="s">
@@ -2043,13 +2088,13 @@
       <c r="K3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="N3" s="27" t="s">
         <v>71</v>
       </c>
       <c r="O3" s="6" t="s">
@@ -2058,7 +2103,7 @@
       <c r="P3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="Q3" s="16" t="s">
         <v>65</v>
       </c>
       <c r="R3" s="4"/>
@@ -2082,13 +2127,13 @@
       <c r="F4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="14" t="b">
+      <c r="H4" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="16" t="b">
         <v>0</v>
       </c>
       <c r="J4" s="6" t="s">
@@ -2097,13 +2142,13 @@
       <c r="K4" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="N4" s="22" t="s">
+      <c r="N4" s="27" t="s">
         <v>76</v>
       </c>
       <c r="O4" s="6" t="s">
@@ -2112,7 +2157,7 @@
       <c r="P4" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="Q4" s="14" t="s">
+      <c r="Q4" s="16" t="s">
         <v>65</v>
       </c>
       <c r="R4" s="4"/>
@@ -2136,13 +2181,13 @@
       <c r="F5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="14" t="b">
+      <c r="H5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="16" t="b">
         <v>0</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -2151,13 +2196,13 @@
       <c r="K5" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="M5" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="N5" s="22" t="s">
+      <c r="N5" s="27" t="s">
         <v>83</v>
       </c>
       <c r="O5" s="6" t="s">
@@ -2166,7 +2211,7 @@
       <c r="P5" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="Q5" s="16" t="s">
         <v>65</v>
       </c>
       <c r="R5" s="4"/>
@@ -2188,31 +2233,31 @@
         <v>55</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="K6" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="H6" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="M6" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="N6" s="22" t="s">
-        <v>92</v>
+      <c r="M6" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" s="27" t="s">
+        <v>90</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>63</v>
@@ -2220,20 +2265,20 @@
       <c r="P6" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="Q6" s="15" t="b">
+      <c r="Q6" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="R6" s="9"/>
+      <c r="R6" s="11"/>
     </row>
     <row r="7" ht="16.35" customHeight="1" spans="1:18">
       <c r="A7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>20</v>
@@ -2242,19 +2287,19 @@
         <v>55</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="H7" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>96</v>
@@ -2262,10 +2307,10 @@
       <c r="L7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="M7" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="N7" s="22" t="s">
+      <c r="N7" s="27" t="s">
         <v>98</v>
       </c>
       <c r="O7" s="6" t="s">
@@ -2274,10 +2319,10 @@
       <c r="P7" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="Q7" s="15" t="b">
+      <c r="Q7" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="R7" s="9"/>
+      <c r="R7" s="11"/>
     </row>
     <row r="8" ht="16.35" customHeight="1" spans="1:18">
       <c r="A8" s="4" t="s">
@@ -2301,29 +2346,29 @@
       <c r="G8" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H8" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="15" t="b">
+      <c r="H8" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="17" t="b">
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="22"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="27"/>
       <c r="O8" s="7" t="s">
         <v>63</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q8" s="24" t="s">
+      <c r="Q8" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="R8" s="9"/>
+      <c r="R8" s="11"/>
     </row>
     <row r="9" ht="16.35" customHeight="1" spans="1:18">
       <c r="A9" s="4" t="s">
@@ -2347,29 +2392,29 @@
       <c r="G9" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="H9" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="15" t="b">
+      <c r="H9" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="17" t="b">
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="22"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="27"/>
       <c r="O9" s="7" t="s">
         <v>63</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q9" s="24" t="s">
+      <c r="Q9" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="R9" s="9"/>
+      <c r="R9" s="11"/>
     </row>
     <row r="10" ht="16.35" customHeight="1" spans="1:18">
       <c r="A10" s="4" t="s">
@@ -2390,32 +2435,32 @@
       <c r="F10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="H10" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="14" t="b">
+      <c r="H10" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="16" t="b">
         <v>0</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="22"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="27"/>
       <c r="O10" s="7" t="s">
         <v>63</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q10" s="24" t="s">
+      <c r="Q10" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="R10" s="9"/>
+      <c r="R10" s="11"/>
     </row>
     <row r="11" ht="16.35" customHeight="1" spans="1:18">
       <c r="A11" s="4" t="s">
@@ -2436,32 +2481,32 @@
       <c r="F11" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="H11" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="14" t="b">
+      <c r="H11" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="16" t="b">
         <v>0</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="22"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="27"/>
       <c r="O11" s="7" t="s">
         <v>63</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q11" s="24" t="s">
+      <c r="Q11" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="R11" s="9"/>
+      <c r="R11" s="11"/>
     </row>
     <row r="12" ht="16.35" customHeight="1" spans="1:18">
       <c r="A12" s="4" t="s">
@@ -2485,29 +2530,29 @@
       <c r="G12" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H12" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="15" t="b">
+      <c r="H12" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="17" t="b">
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="22"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="27"/>
       <c r="O12" s="7" t="s">
         <v>63</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q12" s="24" t="s">
+      <c r="Q12" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="R12" s="9"/>
+      <c r="R12" s="11"/>
     </row>
     <row r="13" ht="16.35" customHeight="1" spans="1:18">
       <c r="A13" s="4" t="s">
@@ -2531,29 +2576,29 @@
       <c r="G13" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H13" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="15" t="b">
+      <c r="H13" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="17" t="b">
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="22"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="27"/>
       <c r="O13" s="7" t="s">
         <v>63</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q13" s="24" t="s">
+      <c r="Q13" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="R13" s="9"/>
+      <c r="R13" s="11"/>
     </row>
     <row r="14" ht="16.35" customHeight="1" spans="1:18">
       <c r="A14" s="4" t="s">
@@ -2577,29 +2622,29 @@
       <c r="G14" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H14" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="15" t="b">
+      <c r="H14" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="17" t="b">
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="22"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="27"/>
       <c r="O14" s="7" t="s">
         <v>63</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q14" s="24" t="s">
+      <c r="Q14" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="R14" s="9"/>
+      <c r="R14" s="11"/>
     </row>
     <row r="15" ht="16.35" customHeight="1" spans="1:18">
       <c r="A15" s="4" t="s">
@@ -2623,29 +2668,29 @@
       <c r="G15" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H15" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="15" t="b">
+      <c r="H15" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="17" t="b">
         <v>0</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="22"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="27"/>
       <c r="O15" s="7" t="s">
         <v>63</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q15" s="24" t="s">
+      <c r="Q15" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="R15" s="9"/>
+      <c r="R15" s="11"/>
     </row>
     <row r="16" ht="16.35" customHeight="1" spans="1:18">
       <c r="A16" s="4" t="s">
@@ -2669,29 +2714,29 @@
       <c r="G16" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H16" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="15" t="b">
+      <c r="H16" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="17" t="b">
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="22"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="27"/>
       <c r="O16" s="7" t="s">
         <v>63</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q16" s="24" t="s">
+      <c r="Q16" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="R16" s="9"/>
+      <c r="R16" s="11"/>
     </row>
     <row r="17" ht="16.35" customHeight="1" spans="1:18">
       <c r="A17" s="4" t="s">
@@ -2715,1207 +2760,1265 @@
       <c r="G17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H17" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="15" t="b">
+      <c r="H17" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="17" t="b">
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="22"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="27"/>
       <c r="O17" s="7" t="s">
         <v>63</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q17" s="24" t="s">
+      <c r="Q17" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="R17" s="9"/>
-    </row>
-    <row r="18" ht="20" customHeight="1" spans="1:18">
+      <c r="R17" s="11"/>
+    </row>
+    <row r="18" customFormat="1" ht="20" customHeight="1" spans="1:18">
       <c r="A18" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="H18" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="6" t="s">
+      <c r="H18" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q18" s="24" t="s">
+      <c r="K18" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="L18" s="10"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q18" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="R18" s="21"/>
-    </row>
-    <row r="19" ht="20" customHeight="1" spans="1:18">
+      <c r="R18" s="28"/>
+    </row>
+    <row r="19" customFormat="1" ht="20" customHeight="1" spans="1:18">
       <c r="A19" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B19" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="C19" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="H19" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="6" t="s">
+      <c r="H19" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q19" s="24" t="s">
+      <c r="K19" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="L19" s="10"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q19" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="R19" s="21"/>
-    </row>
-    <row r="20" ht="16.35" customHeight="1" spans="1:18">
+      <c r="R19" s="28"/>
+    </row>
+    <row r="20" customFormat="1" ht="20" customHeight="1" spans="1:18">
       <c r="A20" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C20" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="B20" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="H20" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="6" t="s">
+      <c r="H20" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="K20" s="6"/>
-      <c r="L20" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="M20" s="21"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q20" s="24" t="s">
+      <c r="K20" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L20" s="10"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q20" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="R20" s="9"/>
-    </row>
-    <row r="21" ht="16.35" customHeight="1" spans="1:18">
+      <c r="R20" s="28"/>
+    </row>
+    <row r="21" customFormat="1" ht="20" customHeight="1" spans="1:18">
       <c r="A21" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="B21" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="H21" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="6" t="s">
+      <c r="H21" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q21" s="24" t="s">
+      <c r="K21" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="L21" s="10"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q21" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="R21" s="9"/>
-    </row>
-    <row r="22" ht="16.35" customHeight="1" spans="1:18">
+      <c r="R21" s="28"/>
+    </row>
+    <row r="22" customFormat="1" ht="20" customHeight="1" spans="1:18">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D22" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="H22" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="6" t="s">
+      <c r="H22" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q22" s="24" t="s">
+      <c r="K22" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q22" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="R22" s="9"/>
-    </row>
-    <row r="23" ht="16.35" customHeight="1" spans="1:18">
+      <c r="R22" s="28"/>
+    </row>
+    <row r="23" customFormat="1" ht="20" customHeight="1" spans="1:18">
       <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D23" s="6" t="s">
+      <c r="B23" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="H23" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="6" t="s">
+      <c r="H23" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q23" s="24" t="s">
+      <c r="K23" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="L23" s="9"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q23" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="R23" s="9"/>
-    </row>
-    <row r="24" ht="16.35" customHeight="1" spans="1:18">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="9"/>
+      <c r="R23" s="28"/>
+    </row>
+    <row r="24" customFormat="1" ht="20" customHeight="1" spans="1:18">
+      <c r="A24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H24" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L24" s="9"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q24" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="R24" s="28"/>
     </row>
     <row r="25" ht="16.35" customHeight="1" spans="1:18">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="9"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="11"/>
     </row>
     <row r="26" ht="16.35" customHeight="1" spans="1:18">
-      <c r="A26" s="9"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="9"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="11"/>
     </row>
     <row r="27" ht="16.35" customHeight="1" spans="1:18">
-      <c r="A27" s="9"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="9"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="11"/>
     </row>
     <row r="28" ht="16.35" customHeight="1" spans="1:18">
-      <c r="A28" s="9"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="9"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="11"/>
     </row>
     <row r="29" ht="16.35" customHeight="1" spans="1:18">
-      <c r="A29" s="9"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="9"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="11"/>
     </row>
     <row r="30" ht="16.35" customHeight="1" spans="1:18">
-      <c r="A30" s="9"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="9"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="11"/>
     </row>
     <row r="31" ht="16.35" customHeight="1" spans="1:18">
-      <c r="A31" s="9"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="9"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="11"/>
     </row>
     <row r="32" ht="16.35" customHeight="1" spans="1:18">
-      <c r="A32" s="9"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="9"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="11"/>
     </row>
     <row r="33" ht="16.35" customHeight="1" spans="1:18">
-      <c r="A33" s="9"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="9"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="11"/>
     </row>
     <row r="34" ht="16.35" customHeight="1" spans="1:18">
-      <c r="A34" s="9"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="9"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="11"/>
     </row>
     <row r="35" ht="16.35" customHeight="1" spans="1:18">
-      <c r="A35" s="9"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="9"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="11"/>
     </row>
     <row r="36" ht="16.35" customHeight="1" spans="1:18">
-      <c r="A36" s="9"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="9"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="11"/>
     </row>
     <row r="37" ht="16.35" customHeight="1" spans="1:18">
-      <c r="A37" s="9"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="9"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="11"/>
     </row>
     <row r="38" ht="16.35" customHeight="1" spans="1:18">
-      <c r="A38" s="9"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="9"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="11"/>
     </row>
     <row r="39" ht="16.35" customHeight="1" spans="1:18">
-      <c r="A39" s="9"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="9"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="11"/>
     </row>
     <row r="40" ht="16.35" customHeight="1" spans="1:18">
-      <c r="A40" s="9"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="9"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="11"/>
     </row>
     <row r="41" ht="16.35" customHeight="1" spans="1:18">
-      <c r="A41" s="9"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="9"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="11"/>
     </row>
     <row r="42" ht="16.35" customHeight="1" spans="1:18">
-      <c r="A42" s="9"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="9"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="11"/>
     </row>
     <row r="43" ht="16.35" customHeight="1" spans="1:18">
-      <c r="A43" s="9"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="16"/>
-      <c r="R43" s="9"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="11"/>
     </row>
     <row r="44" ht="16.35" customHeight="1" spans="1:18">
-      <c r="A44" s="9"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="16"/>
-      <c r="R44" s="9"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="11"/>
     </row>
     <row r="45" ht="16.35" customHeight="1" spans="1:18">
-      <c r="A45" s="9"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="9"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="11"/>
     </row>
     <row r="46" ht="16.35" customHeight="1" spans="1:18">
-      <c r="A46" s="9"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="9"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="11"/>
     </row>
     <row r="47" ht="16.35" customHeight="1" spans="1:18">
-      <c r="A47" s="9"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="16"/>
-      <c r="R47" s="9"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="11"/>
     </row>
     <row r="48" ht="16.35" customHeight="1" spans="1:18">
-      <c r="A48" s="9"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="16"/>
-      <c r="R48" s="9"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="11"/>
     </row>
     <row r="49" ht="16.35" customHeight="1" spans="1:18">
-      <c r="A49" s="9"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="23"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="16"/>
-      <c r="R49" s="9"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="11"/>
     </row>
     <row r="50" ht="16.35" customHeight="1" spans="1:18">
-      <c r="A50" s="9"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="16"/>
-      <c r="R50" s="9"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="30"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="11"/>
     </row>
     <row r="51" ht="16.35" customHeight="1" spans="1:18">
-      <c r="A51" s="9"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="23"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="16"/>
-      <c r="R51" s="9"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="21"/>
+      <c r="R51" s="11"/>
     </row>
     <row r="52" ht="16.35" customHeight="1" spans="1:18">
-      <c r="A52" s="9"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="23"/>
-      <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="9"/>
+      <c r="A52" s="11"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="21"/>
+      <c r="R52" s="11"/>
     </row>
     <row r="53" ht="16.35" customHeight="1" spans="1:18">
-      <c r="A53" s="9"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="23"/>
-      <c r="O53" s="9"/>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="16"/>
-      <c r="R53" s="9"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="21"/>
+      <c r="R53" s="11"/>
     </row>
     <row r="54" ht="16.35" customHeight="1" spans="1:18">
-      <c r="A54" s="9"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="23"/>
-      <c r="O54" s="9"/>
-      <c r="P54" s="9"/>
-      <c r="Q54" s="16"/>
-      <c r="R54" s="9"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="30"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="21"/>
+      <c r="R54" s="11"/>
     </row>
     <row r="55" ht="16.35" customHeight="1" spans="1:18">
-      <c r="A55" s="9"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="9"/>
-      <c r="N55" s="23"/>
-      <c r="O55" s="9"/>
-      <c r="P55" s="9"/>
-      <c r="Q55" s="16"/>
-      <c r="R55" s="9"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="21"/>
+      <c r="R55" s="11"/>
     </row>
     <row r="56" ht="16.35" customHeight="1" spans="1:18">
-      <c r="A56" s="9"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="9"/>
-      <c r="N56" s="23"/>
-      <c r="O56" s="9"/>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="16"/>
-      <c r="R56" s="9"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="21"/>
+      <c r="R56" s="11"/>
     </row>
     <row r="57" ht="16.35" customHeight="1" spans="1:18">
-      <c r="A57" s="9"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
-      <c r="L57" s="20"/>
-      <c r="M57" s="9"/>
-      <c r="N57" s="23"/>
-      <c r="O57" s="9"/>
-      <c r="P57" s="9"/>
-      <c r="Q57" s="16"/>
-      <c r="R57" s="9"/>
+      <c r="A57" s="11"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="30"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="21"/>
+      <c r="R57" s="11"/>
     </row>
     <row r="58" ht="16.35" customHeight="1" spans="1:18">
-      <c r="A58" s="9"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="20"/>
-      <c r="M58" s="9"/>
-      <c r="N58" s="23"/>
-      <c r="O58" s="9"/>
-      <c r="P58" s="9"/>
-      <c r="Q58" s="16"/>
-      <c r="R58" s="9"/>
-    </row>
-    <row r="59" ht="15.2" spans="1:18">
-      <c r="A59" s="9"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="9"/>
-      <c r="N59" s="23"/>
-      <c r="O59" s="9"/>
-      <c r="P59" s="9"/>
-      <c r="Q59" s="16"/>
-      <c r="R59" s="9"/>
+      <c r="A58" s="11"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="30"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="21"/>
+      <c r="R58" s="11"/>
+    </row>
+    <row r="59" ht="16.35" customHeight="1" spans="1:18">
+      <c r="A59" s="11"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="30"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="21"/>
+      <c r="R59" s="11"/>
     </row>
     <row r="60" ht="15.2" spans="1:18">
-      <c r="A60" s="9"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="9"/>
-      <c r="N60" s="23"/>
-      <c r="O60" s="9"/>
-      <c r="P60" s="9"/>
-      <c r="Q60" s="16"/>
-      <c r="R60" s="9"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="30"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="21"/>
+      <c r="R60" s="11"/>
     </row>
     <row r="61" ht="15.2" spans="1:18">
-      <c r="A61" s="9"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="20"/>
-      <c r="M61" s="9"/>
-      <c r="N61" s="23"/>
-      <c r="O61" s="9"/>
-      <c r="P61" s="9"/>
-      <c r="Q61" s="16"/>
-      <c r="R61" s="9"/>
+      <c r="A61" s="11"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="30"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="21"/>
+      <c r="R61" s="11"/>
     </row>
     <row r="62" ht="15.2" spans="1:18">
-      <c r="A62" s="9"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="20"/>
-      <c r="M62" s="9"/>
-      <c r="N62" s="23"/>
-      <c r="O62" s="9"/>
-      <c r="P62" s="9"/>
-      <c r="Q62" s="16"/>
-      <c r="R62" s="9"/>
+      <c r="A62" s="11"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="25"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="30"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="21"/>
+      <c r="R62" s="11"/>
     </row>
     <row r="63" ht="15.2" spans="1:18">
-      <c r="A63" s="9"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="20"/>
-      <c r="M63" s="9"/>
-      <c r="N63" s="23"/>
-      <c r="O63" s="9"/>
-      <c r="P63" s="9"/>
-      <c r="Q63" s="16"/>
-      <c r="R63" s="9"/>
+      <c r="A63" s="11"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="25"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="30"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="21"/>
+      <c r="R63" s="11"/>
     </row>
     <row r="64" ht="15.2" spans="1:18">
-      <c r="A64" s="9"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="20"/>
-      <c r="M64" s="9"/>
-      <c r="N64" s="23"/>
-      <c r="O64" s="9"/>
-      <c r="P64" s="9"/>
-      <c r="Q64" s="16"/>
-      <c r="R64" s="9"/>
+      <c r="A64" s="11"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="30"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="21"/>
+      <c r="R64" s="11"/>
     </row>
     <row r="65" ht="15.2" spans="1:18">
-      <c r="A65" s="9"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="20"/>
-      <c r="M65" s="9"/>
-      <c r="N65" s="23"/>
-      <c r="O65" s="9"/>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="16"/>
-      <c r="R65" s="9"/>
+      <c r="A65" s="11"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="30"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="21"/>
+      <c r="R65" s="11"/>
     </row>
     <row r="66" ht="15.2" spans="1:18">
-      <c r="A66" s="9"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="20"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="23"/>
-      <c r="O66" s="9"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="16"/>
-      <c r="R66" s="9"/>
+      <c r="A66" s="11"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="25"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="30"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="21"/>
+      <c r="R66" s="11"/>
     </row>
     <row r="67" ht="15.2" spans="1:18">
-      <c r="A67" s="9"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
-      <c r="L67" s="20"/>
-      <c r="M67" s="9"/>
-      <c r="N67" s="23"/>
-      <c r="O67" s="9"/>
-      <c r="P67" s="9"/>
-      <c r="Q67" s="16"/>
-      <c r="R67" s="9"/>
+      <c r="A67" s="11"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="25"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="30"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="21"/>
+      <c r="R67" s="11"/>
     </row>
     <row r="68" ht="15.2" spans="1:18">
-      <c r="A68" s="9"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="20"/>
-      <c r="M68" s="9"/>
-      <c r="N68" s="23"/>
-      <c r="O68" s="9"/>
-      <c r="P68" s="9"/>
-      <c r="Q68" s="16"/>
-      <c r="R68" s="9"/>
+      <c r="A68" s="11"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="25"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="30"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="21"/>
+      <c r="R68" s="11"/>
+    </row>
+    <row r="69" ht="15.2" spans="1:18">
+      <c r="A69" s="11"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="25"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="30"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="21"/>
+      <c r="R69" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.02430555555556" bottom="1.02430555555556" header="0.7875" footer="0.7875"/>

--- a/data/menu_afternoon_tea.xlsx
+++ b/data/menu_afternoon_tea.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161">
   <si>
     <t>id</t>
   </si>
@@ -478,6 +478,9 @@
   </si>
   <si>
     <t>法芙娜焦糖巧克力</t>
+  </si>
+  <si>
+    <t>images/product/Dessert/法芙娜焦糖巧克力.png</t>
   </si>
   <si>
     <t>Pumpkin Cheese Cake</t>
@@ -1921,8 +1924,8 @@
   <sheetPr/>
   <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="H10" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -3008,7 +3011,7 @@
         <v>139</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="L22" s="9"/>
       <c r="M22" s="28"/>
@@ -3029,10 +3032,10 @@
         <v>23</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>36</v>
@@ -3056,7 +3059,7 @@
         <v>139</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="28"/>
@@ -3077,10 +3080,10 @@
         <v>26</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>36</v>
@@ -3104,7 +3107,7 @@
         <v>139</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="29"/>

--- a/data/menu_afternoon_tea.xlsx
+++ b/data/menu_afternoon_tea.xlsx
@@ -1924,7 +1924,7 @@
   <sheetPr/>
   <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="H10" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>

--- a/data/menu_afternoon_tea.xlsx
+++ b/data/menu_afternoon_tea.xlsx
@@ -279,6 +279,12 @@
     <t>RT奶茶</t>
   </si>
   <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>38/Glass</t>
+  </si>
+  <si>
     <t>soft drink</t>
   </si>
   <si>
@@ -298,12 +304,6 @@
   </si>
   <si>
     <t>白日梦</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>38/Glass</t>
   </si>
   <si>
     <t>images/product/Mocktail/Daydream.png</t>
@@ -507,10 +507,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -535,7 +535,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,17 +565,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -579,24 +594,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,23 +611,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,7 +627,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -650,7 +657,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,16 +671,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -694,7 +694,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,67 +742,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,13 +772,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,13 +802,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,37 +832,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,7 +856,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,7 +874,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,35 +970,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1015,16 +991,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1047,165 +1047,165 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1258,9 +1258,6 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1279,9 +1276,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1655,259 +1649,259 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="11.5178571428571" style="35"/>
-    <col min="3" max="3" width="41.6607142857143" style="35" customWidth="1"/>
-    <col min="4" max="4" width="37.1785714285714" style="35" customWidth="1"/>
-    <col min="5" max="5" width="59.4732142857143" style="35" customWidth="1"/>
-    <col min="6" max="6" width="22.3571428571429" style="36" customWidth="1"/>
-    <col min="7" max="7" width="11.5178571428571" style="36"/>
-    <col min="8" max="8" width="16.2589285714286" style="35" customWidth="1"/>
-    <col min="9" max="9" width="18.1964285714286" style="35" customWidth="1"/>
-    <col min="10" max="1025" width="11.5178571428571" style="34"/>
-    <col min="1026" max="16384" width="9" style="34"/>
+    <col min="1" max="2" width="11.5178571428571" style="33"/>
+    <col min="3" max="3" width="41.6607142857143" style="33" customWidth="1"/>
+    <col min="4" max="4" width="37.1785714285714" style="33" customWidth="1"/>
+    <col min="5" max="5" width="59.4732142857143" style="33" customWidth="1"/>
+    <col min="6" max="6" width="22.3571428571429" style="34" customWidth="1"/>
+    <col min="7" max="7" width="11.5178571428571" style="34"/>
+    <col min="8" max="8" width="16.2589285714286" style="33" customWidth="1"/>
+    <col min="9" max="9" width="18.1964285714286" style="33" customWidth="1"/>
+    <col min="10" max="1025" width="11.5178571428571" style="32"/>
+    <col min="1026" max="16384" width="9" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" s="34" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A1" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="38" t="s">
+    <row r="1" s="32" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="34" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A2" s="39" t="s">
+    <row r="2" s="32" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="37">
         <v>1</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="44" t="b">
+      <c r="F2" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="G2" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" s="39"/>
-      <c r="I2" s="46"/>
-    </row>
-    <row r="3" s="34" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A3" s="39" t="s">
+      <c r="G2" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="37"/>
+      <c r="I2" s="44"/>
+    </row>
+    <row r="3" s="32" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="37">
         <v>2</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="44" t="b">
+      <c r="E3" s="37"/>
+      <c r="F3" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="G3" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="46"/>
-    </row>
-    <row r="4" s="34" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A4" s="39" t="s">
+      <c r="G3" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="37"/>
+      <c r="I3" s="44"/>
+    </row>
+    <row r="4" s="32" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A4" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="37">
         <v>1</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="44" t="b">
+      <c r="F4" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="39"/>
-      <c r="I4" s="46"/>
-    </row>
-    <row r="5" s="34" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A5" s="39" t="s">
+      <c r="G4" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="37"/>
+      <c r="I4" s="44"/>
+    </row>
+    <row r="5" s="32" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A5" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="44" t="b">
+      <c r="E5" s="41"/>
+      <c r="F5" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="G5" s="44" t="b">
+      <c r="G5" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="46"/>
-    </row>
-    <row r="6" s="34" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A6" s="39" t="s">
+      <c r="H5" s="37"/>
+      <c r="I5" s="44"/>
+    </row>
+    <row r="6" s="32" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A6" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="37">
         <v>2</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="39"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" s="34" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A7" s="39" t="s">
+      <c r="E6" s="37"/>
+      <c r="F6" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="37"/>
+      <c r="I6" s="44"/>
+    </row>
+    <row r="7" s="32" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A7" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="39"/>
-      <c r="I7" s="46"/>
-    </row>
-    <row r="8" s="34" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A8" s="40" t="s">
+      <c r="E7" s="37"/>
+      <c r="F7" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="37"/>
+      <c r="I7" s="44"/>
+    </row>
+    <row r="8" s="32" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A8" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="37">
         <v>2</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="39"/>
-      <c r="I8" s="46"/>
-    </row>
-    <row r="9" s="34" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A9" s="39" t="s">
+      <c r="E8" s="37"/>
+      <c r="F8" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="37"/>
+      <c r="I8" s="44"/>
+    </row>
+    <row r="9" s="32" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A9" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="37">
         <v>1</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="44" t="b">
+      <c r="F9" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="G9" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="46"/>
-    </row>
-    <row r="10" s="34" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A10" s="41" t="s">
+      <c r="G9" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="37"/>
+      <c r="I9" s="44"/>
+    </row>
+    <row r="10" s="32" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A10" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="44" t="b">
+      <c r="E10" s="39"/>
+      <c r="F10" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="G10" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="47"/>
+      <c r="G10" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="39"/>
+      <c r="I10" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.02430555555556" bottom="1.02430555555556" header="0.7875" footer="0.7875"/>
@@ -1924,8 +1918,8 @@
   <sheetPr/>
   <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1981,13 +1975,13 @@
       <c r="K1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="21" t="s">
         <v>49</v>
       </c>
       <c r="O1" s="4" t="s">
@@ -2037,13 +2031,13 @@
       <c r="K2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="N2" s="26" t="s">
         <v>62</v>
       </c>
       <c r="O2" s="6" t="s">
@@ -2091,13 +2085,13 @@
       <c r="K3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="27" t="s">
+      <c r="N3" s="26" t="s">
         <v>71</v>
       </c>
       <c r="O3" s="6" t="s">
@@ -2145,13 +2139,13 @@
       <c r="K4" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="N4" s="27" t="s">
+      <c r="N4" s="26" t="s">
         <v>76</v>
       </c>
       <c r="O4" s="6" t="s">
@@ -2199,13 +2193,13 @@
       <c r="K5" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="L5" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="M5" s="26" t="s">
+      <c r="M5" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="N5" s="27" t="s">
+      <c r="N5" s="26" t="s">
         <v>83</v>
       </c>
       <c r="O5" s="6" t="s">
@@ -2236,10 +2230,10 @@
         <v>55</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="H6" s="16" t="b">
         <v>0</v>
@@ -2248,19 +2242,19 @@
         <v>0</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="M6" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="N6" s="27" t="s">
-        <v>90</v>
+      <c r="M6" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="N6" s="26" t="s">
+        <v>92</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>63</v>
@@ -2275,13 +2269,13 @@
     </row>
     <row r="7" ht="16.35" customHeight="1" spans="1:18">
       <c r="A7" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>20</v>
@@ -2290,10 +2284,10 @@
         <v>55</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="H7" s="16" t="b">
         <v>0</v>
@@ -2302,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>96</v>
@@ -2310,10 +2304,10 @@
       <c r="L7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="26" t="s">
+      <c r="M7" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="N7" s="27" t="s">
+      <c r="N7" s="26" t="s">
         <v>98</v>
       </c>
       <c r="O7" s="6" t="s">
@@ -2356,19 +2350,19 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="27"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="26"/>
       <c r="O8" s="7" t="s">
         <v>63</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q8" s="31" t="s">
+      <c r="Q8" s="29" t="s">
         <v>65</v>
       </c>
       <c r="R8" s="11"/>
@@ -2402,19 +2396,19 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="27"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="26"/>
       <c r="O9" s="7" t="s">
         <v>63</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q9" s="31" t="s">
+      <c r="Q9" s="29" t="s">
         <v>65</v>
       </c>
       <c r="R9" s="11"/>
@@ -2448,19 +2442,19 @@
         <v>0</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="27"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="26"/>
       <c r="O10" s="7" t="s">
         <v>63</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q10" s="31" t="s">
+      <c r="Q10" s="29" t="s">
         <v>65</v>
       </c>
       <c r="R10" s="11"/>
@@ -2494,19 +2488,19 @@
         <v>0</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="27"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="26"/>
       <c r="O11" s="7" t="s">
         <v>63</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q11" s="31" t="s">
+      <c r="Q11" s="29" t="s">
         <v>65</v>
       </c>
       <c r="R11" s="11"/>
@@ -2540,19 +2534,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="27"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="26"/>
       <c r="O12" s="7" t="s">
         <v>63</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q12" s="31" t="s">
+      <c r="Q12" s="29" t="s">
         <v>65</v>
       </c>
       <c r="R12" s="11"/>
@@ -2586,19 +2580,19 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="27"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="26"/>
       <c r="O13" s="7" t="s">
         <v>63</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q13" s="31" t="s">
+      <c r="Q13" s="29" t="s">
         <v>65</v>
       </c>
       <c r="R13" s="11"/>
@@ -2632,19 +2626,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="27"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="26"/>
       <c r="O14" s="7" t="s">
         <v>63</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q14" s="31" t="s">
+      <c r="Q14" s="29" t="s">
         <v>65</v>
       </c>
       <c r="R14" s="11"/>
@@ -2678,19 +2672,19 @@
         <v>0</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="27"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="26"/>
       <c r="O15" s="7" t="s">
         <v>63</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q15" s="31" t="s">
+      <c r="Q15" s="29" t="s">
         <v>65</v>
       </c>
       <c r="R15" s="11"/>
@@ -2724,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="27"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="26"/>
       <c r="O16" s="7" t="s">
         <v>63</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q16" s="31" t="s">
+      <c r="Q16" s="29" t="s">
         <v>65</v>
       </c>
       <c r="R16" s="11"/>
@@ -2770,19 +2764,19 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="27"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="26"/>
       <c r="O17" s="7" t="s">
         <v>63</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q17" s="31" t="s">
+      <c r="Q17" s="29" t="s">
         <v>65</v>
       </c>
       <c r="R17" s="11"/>
@@ -2822,18 +2816,18 @@
         <v>140</v>
       </c>
       <c r="L18" s="10"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="29"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="27"/>
       <c r="O18" s="8" t="s">
         <v>63</v>
       </c>
       <c r="P18" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="Q18" s="32" t="s">
+      <c r="Q18" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="R18" s="28"/>
+      <c r="R18" s="9"/>
     </row>
     <row r="19" customFormat="1" ht="20" customHeight="1" spans="1:18">
       <c r="A19" s="4" t="s">
@@ -2870,18 +2864,18 @@
         <v>144</v>
       </c>
       <c r="L19" s="10"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="29"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="27"/>
       <c r="O19" s="8" t="s">
         <v>63</v>
       </c>
       <c r="P19" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="Q19" s="32" t="s">
+      <c r="Q19" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="R19" s="28"/>
+      <c r="R19" s="9"/>
     </row>
     <row r="20" customFormat="1" ht="20" customHeight="1" spans="1:18">
       <c r="A20" s="4" t="s">
@@ -2918,18 +2912,18 @@
         <v>148</v>
       </c>
       <c r="L20" s="10"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="29"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="27"/>
       <c r="O20" s="8" t="s">
         <v>63</v>
       </c>
       <c r="P20" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="Q20" s="32" t="s">
+      <c r="Q20" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="R20" s="28"/>
+      <c r="R20" s="9"/>
     </row>
     <row r="21" customFormat="1" ht="20" customHeight="1" spans="1:18">
       <c r="A21" s="4" t="s">
@@ -2953,10 +2947,10 @@
       <c r="G21" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="H21" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="20" t="b">
+      <c r="H21" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="19" t="b">
         <v>0</v>
       </c>
       <c r="J21" s="9" t="s">
@@ -2966,18 +2960,18 @@
         <v>151</v>
       </c>
       <c r="L21" s="10"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="29"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="27"/>
       <c r="O21" s="8" t="s">
         <v>63</v>
       </c>
       <c r="P21" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="Q21" s="32" t="s">
+      <c r="Q21" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="R21" s="28"/>
+      <c r="R21" s="9"/>
     </row>
     <row r="22" customFormat="1" ht="20" customHeight="1" spans="1:18">
       <c r="A22" s="4" t="s">
@@ -3001,10 +2995,10 @@
       <c r="G22" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="H22" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" s="20" t="b">
+      <c r="H22" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="19" t="b">
         <v>0</v>
       </c>
       <c r="J22" s="9" t="s">
@@ -3014,18 +3008,18 @@
         <v>154</v>
       </c>
       <c r="L22" s="9"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="29"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="27"/>
       <c r="O22" s="8" t="s">
         <v>63</v>
       </c>
       <c r="P22" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="Q22" s="32" t="s">
+      <c r="Q22" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="R22" s="28"/>
+      <c r="R22" s="9"/>
     </row>
     <row r="23" customFormat="1" ht="20" customHeight="1" spans="1:18">
       <c r="A23" s="4" t="s">
@@ -3049,10 +3043,10 @@
       <c r="G23" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="H23" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" s="20" t="b">
+      <c r="H23" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="19" t="b">
         <v>0</v>
       </c>
       <c r="J23" s="9" t="s">
@@ -3062,18 +3056,18 @@
         <v>157</v>
       </c>
       <c r="L23" s="9"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="29"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="27"/>
       <c r="O23" s="8" t="s">
         <v>63</v>
       </c>
       <c r="P23" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="Q23" s="32" t="s">
+      <c r="Q23" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="R23" s="28"/>
+      <c r="R23" s="9"/>
     </row>
     <row r="24" customFormat="1" ht="20" customHeight="1" spans="1:18">
       <c r="A24" s="4" t="s">
@@ -3097,10 +3091,10 @@
       <c r="G24" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="H24" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" s="20" t="b">
+      <c r="H24" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="19" t="b">
         <v>0</v>
       </c>
       <c r="J24" s="9" t="s">
@@ -3110,7 +3104,7 @@
         <v>160</v>
       </c>
       <c r="L24" s="9"/>
-      <c r="M24" s="29"/>
+      <c r="M24" s="27"/>
       <c r="N24" s="9"/>
       <c r="O24" s="8" t="s">
         <v>63</v>
@@ -3118,10 +3112,10 @@
       <c r="P24" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="Q24" s="32" t="s">
+      <c r="Q24" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="R24" s="28"/>
+      <c r="R24" s="9"/>
     </row>
     <row r="25" ht="16.35" customHeight="1" spans="1:18">
       <c r="A25" s="11"/>
@@ -3131,16 +3125,16 @@
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
-      <c r="L25" s="24"/>
+      <c r="L25" s="23"/>
       <c r="M25" s="11"/>
-      <c r="N25" s="30"/>
+      <c r="N25" s="28"/>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
-      <c r="Q25" s="33"/>
+      <c r="Q25" s="31"/>
       <c r="R25" s="11"/>
     </row>
     <row r="26" ht="16.35" customHeight="1" spans="1:18">
@@ -3151,16 +3145,16 @@
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
-      <c r="L26" s="24"/>
+      <c r="L26" s="23"/>
       <c r="M26" s="11"/>
-      <c r="N26" s="30"/>
+      <c r="N26" s="28"/>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
-      <c r="Q26" s="33"/>
+      <c r="Q26" s="31"/>
       <c r="R26" s="11"/>
     </row>
     <row r="27" ht="16.35" customHeight="1" spans="1:18">
@@ -3171,16 +3165,16 @@
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
-      <c r="L27" s="24"/>
+      <c r="L27" s="23"/>
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
-      <c r="Q27" s="21"/>
+      <c r="Q27" s="20"/>
       <c r="R27" s="11"/>
     </row>
     <row r="28" ht="16.35" customHeight="1" spans="1:18">
@@ -3191,16 +3185,16 @@
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
-      <c r="L28" s="24"/>
+      <c r="L28" s="23"/>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
-      <c r="Q28" s="21"/>
+      <c r="Q28" s="20"/>
       <c r="R28" s="11"/>
     </row>
     <row r="29" ht="16.35" customHeight="1" spans="1:18">
@@ -3211,16 +3205,16 @@
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
-      <c r="L29" s="24"/>
+      <c r="L29" s="23"/>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
-      <c r="Q29" s="21"/>
+      <c r="Q29" s="20"/>
       <c r="R29" s="11"/>
     </row>
     <row r="30" ht="16.35" customHeight="1" spans="1:18">
@@ -3231,16 +3225,16 @@
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
-      <c r="L30" s="24"/>
+      <c r="L30" s="23"/>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
-      <c r="Q30" s="21"/>
+      <c r="Q30" s="20"/>
       <c r="R30" s="11"/>
     </row>
     <row r="31" ht="16.35" customHeight="1" spans="1:18">
@@ -3251,16 +3245,16 @@
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
-      <c r="L31" s="24"/>
+      <c r="L31" s="23"/>
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
-      <c r="Q31" s="21"/>
+      <c r="Q31" s="20"/>
       <c r="R31" s="11"/>
     </row>
     <row r="32" ht="16.35" customHeight="1" spans="1:18">
@@ -3271,16 +3265,16 @@
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
-      <c r="L32" s="24"/>
+      <c r="L32" s="23"/>
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
-      <c r="Q32" s="21"/>
+      <c r="Q32" s="20"/>
       <c r="R32" s="11"/>
     </row>
     <row r="33" ht="16.35" customHeight="1" spans="1:18">
@@ -3291,16 +3285,16 @@
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
-      <c r="L33" s="24"/>
+      <c r="L33" s="23"/>
       <c r="M33" s="11"/>
-      <c r="N33" s="30"/>
+      <c r="N33" s="28"/>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
-      <c r="Q33" s="21"/>
+      <c r="Q33" s="20"/>
       <c r="R33" s="11"/>
     </row>
     <row r="34" ht="16.35" customHeight="1" spans="1:18">
@@ -3311,16 +3305,16 @@
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
-      <c r="L34" s="24"/>
+      <c r="L34" s="23"/>
       <c r="M34" s="11"/>
-      <c r="N34" s="30"/>
+      <c r="N34" s="28"/>
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
-      <c r="Q34" s="21"/>
+      <c r="Q34" s="20"/>
       <c r="R34" s="11"/>
     </row>
     <row r="35" ht="16.35" customHeight="1" spans="1:18">
@@ -3331,16 +3325,16 @@
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
-      <c r="L35" s="24"/>
+      <c r="L35" s="23"/>
       <c r="M35" s="11"/>
-      <c r="N35" s="30"/>
+      <c r="N35" s="28"/>
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
-      <c r="Q35" s="21"/>
+      <c r="Q35" s="20"/>
       <c r="R35" s="11"/>
     </row>
     <row r="36" ht="16.35" customHeight="1" spans="1:18">
@@ -3351,16 +3345,16 @@
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
-      <c r="L36" s="24"/>
+      <c r="L36" s="23"/>
       <c r="M36" s="11"/>
-      <c r="N36" s="30"/>
+      <c r="N36" s="28"/>
       <c r="O36" s="11"/>
       <c r="P36" s="11"/>
-      <c r="Q36" s="21"/>
+      <c r="Q36" s="20"/>
       <c r="R36" s="11"/>
     </row>
     <row r="37" ht="16.35" customHeight="1" spans="1:18">
@@ -3371,16 +3365,16 @@
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
-      <c r="L37" s="24"/>
+      <c r="L37" s="23"/>
       <c r="M37" s="11"/>
-      <c r="N37" s="30"/>
+      <c r="N37" s="28"/>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
-      <c r="Q37" s="21"/>
+      <c r="Q37" s="20"/>
       <c r="R37" s="11"/>
     </row>
     <row r="38" ht="16.35" customHeight="1" spans="1:18">
@@ -3391,16 +3385,16 @@
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
-      <c r="L38" s="24"/>
+      <c r="L38" s="23"/>
       <c r="M38" s="11"/>
-      <c r="N38" s="30"/>
+      <c r="N38" s="28"/>
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
-      <c r="Q38" s="21"/>
+      <c r="Q38" s="20"/>
       <c r="R38" s="11"/>
     </row>
     <row r="39" ht="16.35" customHeight="1" spans="1:18">
@@ -3411,16 +3405,16 @@
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
-      <c r="L39" s="24"/>
+      <c r="L39" s="23"/>
       <c r="M39" s="11"/>
-      <c r="N39" s="30"/>
+      <c r="N39" s="28"/>
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
-      <c r="Q39" s="21"/>
+      <c r="Q39" s="20"/>
       <c r="R39" s="11"/>
     </row>
     <row r="40" ht="16.35" customHeight="1" spans="1:18">
@@ -3431,16 +3425,16 @@
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
-      <c r="L40" s="24"/>
+      <c r="L40" s="23"/>
       <c r="M40" s="11"/>
-      <c r="N40" s="30"/>
+      <c r="N40" s="28"/>
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
-      <c r="Q40" s="21"/>
+      <c r="Q40" s="20"/>
       <c r="R40" s="11"/>
     </row>
     <row r="41" ht="16.35" customHeight="1" spans="1:18">
@@ -3451,16 +3445,16 @@
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
-      <c r="L41" s="24"/>
+      <c r="L41" s="23"/>
       <c r="M41" s="11"/>
-      <c r="N41" s="30"/>
+      <c r="N41" s="28"/>
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
-      <c r="Q41" s="21"/>
+      <c r="Q41" s="20"/>
       <c r="R41" s="11"/>
     </row>
     <row r="42" ht="16.35" customHeight="1" spans="1:18">
@@ -3471,16 +3465,16 @@
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
-      <c r="L42" s="24"/>
+      <c r="L42" s="23"/>
       <c r="M42" s="11"/>
-      <c r="N42" s="30"/>
+      <c r="N42" s="28"/>
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
-      <c r="Q42" s="21"/>
+      <c r="Q42" s="20"/>
       <c r="R42" s="11"/>
     </row>
     <row r="43" ht="16.35" customHeight="1" spans="1:18">
@@ -3491,16 +3485,16 @@
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
-      <c r="L43" s="24"/>
+      <c r="L43" s="23"/>
       <c r="M43" s="11"/>
-      <c r="N43" s="30"/>
+      <c r="N43" s="28"/>
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
-      <c r="Q43" s="21"/>
+      <c r="Q43" s="20"/>
       <c r="R43" s="11"/>
     </row>
     <row r="44" ht="16.35" customHeight="1" spans="1:18">
@@ -3511,16 +3505,16 @@
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
-      <c r="L44" s="24"/>
+      <c r="L44" s="23"/>
       <c r="M44" s="11"/>
-      <c r="N44" s="30"/>
+      <c r="N44" s="28"/>
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
-      <c r="Q44" s="21"/>
+      <c r="Q44" s="20"/>
       <c r="R44" s="11"/>
     </row>
     <row r="45" ht="16.35" customHeight="1" spans="1:18">
@@ -3531,16 +3525,16 @@
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
-      <c r="L45" s="25"/>
+      <c r="L45" s="24"/>
       <c r="M45" s="11"/>
-      <c r="N45" s="30"/>
+      <c r="N45" s="28"/>
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
-      <c r="Q45" s="21"/>
+      <c r="Q45" s="20"/>
       <c r="R45" s="11"/>
     </row>
     <row r="46" ht="16.35" customHeight="1" spans="1:18">
@@ -3551,16 +3545,16 @@
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
-      <c r="L46" s="25"/>
+      <c r="L46" s="24"/>
       <c r="M46" s="11"/>
-      <c r="N46" s="30"/>
+      <c r="N46" s="28"/>
       <c r="O46" s="11"/>
       <c r="P46" s="11"/>
-      <c r="Q46" s="21"/>
+      <c r="Q46" s="20"/>
       <c r="R46" s="11"/>
     </row>
     <row r="47" ht="16.35" customHeight="1" spans="1:18">
@@ -3571,16 +3565,16 @@
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
-      <c r="L47" s="25"/>
+      <c r="L47" s="24"/>
       <c r="M47" s="11"/>
-      <c r="N47" s="30"/>
+      <c r="N47" s="28"/>
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
-      <c r="Q47" s="21"/>
+      <c r="Q47" s="20"/>
       <c r="R47" s="11"/>
     </row>
     <row r="48" ht="16.35" customHeight="1" spans="1:18">
@@ -3591,16 +3585,16 @@
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
-      <c r="L48" s="25"/>
+      <c r="L48" s="24"/>
       <c r="M48" s="11"/>
-      <c r="N48" s="30"/>
+      <c r="N48" s="28"/>
       <c r="O48" s="11"/>
       <c r="P48" s="11"/>
-      <c r="Q48" s="21"/>
+      <c r="Q48" s="20"/>
       <c r="R48" s="11"/>
     </row>
     <row r="49" ht="16.35" customHeight="1" spans="1:18">
@@ -3611,16 +3605,16 @@
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
-      <c r="L49" s="25"/>
+      <c r="L49" s="24"/>
       <c r="M49" s="11"/>
-      <c r="N49" s="30"/>
+      <c r="N49" s="28"/>
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
-      <c r="Q49" s="21"/>
+      <c r="Q49" s="20"/>
       <c r="R49" s="11"/>
     </row>
     <row r="50" ht="16.35" customHeight="1" spans="1:18">
@@ -3631,16 +3625,16 @@
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
-      <c r="L50" s="25"/>
+      <c r="L50" s="24"/>
       <c r="M50" s="11"/>
-      <c r="N50" s="30"/>
+      <c r="N50" s="28"/>
       <c r="O50" s="11"/>
       <c r="P50" s="11"/>
-      <c r="Q50" s="21"/>
+      <c r="Q50" s="20"/>
       <c r="R50" s="11"/>
     </row>
     <row r="51" ht="16.35" customHeight="1" spans="1:18">
@@ -3651,16 +3645,16 @@
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
-      <c r="L51" s="25"/>
+      <c r="L51" s="24"/>
       <c r="M51" s="11"/>
-      <c r="N51" s="30"/>
+      <c r="N51" s="28"/>
       <c r="O51" s="11"/>
       <c r="P51" s="11"/>
-      <c r="Q51" s="21"/>
+      <c r="Q51" s="20"/>
       <c r="R51" s="11"/>
     </row>
     <row r="52" ht="16.35" customHeight="1" spans="1:18">
@@ -3671,16 +3665,16 @@
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
-      <c r="L52" s="25"/>
+      <c r="L52" s="24"/>
       <c r="M52" s="11"/>
-      <c r="N52" s="30"/>
+      <c r="N52" s="28"/>
       <c r="O52" s="11"/>
       <c r="P52" s="11"/>
-      <c r="Q52" s="21"/>
+      <c r="Q52" s="20"/>
       <c r="R52" s="11"/>
     </row>
     <row r="53" ht="16.35" customHeight="1" spans="1:18">
@@ -3691,16 +3685,16 @@
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
       <c r="J53" s="11"/>
       <c r="K53" s="11"/>
-      <c r="L53" s="25"/>
+      <c r="L53" s="24"/>
       <c r="M53" s="11"/>
-      <c r="N53" s="30"/>
+      <c r="N53" s="28"/>
       <c r="O53" s="11"/>
       <c r="P53" s="11"/>
-      <c r="Q53" s="21"/>
+      <c r="Q53" s="20"/>
       <c r="R53" s="11"/>
     </row>
     <row r="54" ht="16.35" customHeight="1" spans="1:18">
@@ -3711,16 +3705,16 @@
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>
-      <c r="L54" s="25"/>
+      <c r="L54" s="24"/>
       <c r="M54" s="11"/>
-      <c r="N54" s="30"/>
+      <c r="N54" s="28"/>
       <c r="O54" s="11"/>
       <c r="P54" s="11"/>
-      <c r="Q54" s="21"/>
+      <c r="Q54" s="20"/>
       <c r="R54" s="11"/>
     </row>
     <row r="55" ht="16.35" customHeight="1" spans="1:18">
@@ -3731,16 +3725,16 @@
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
       <c r="J55" s="11"/>
       <c r="K55" s="11"/>
-      <c r="L55" s="25"/>
+      <c r="L55" s="24"/>
       <c r="M55" s="11"/>
-      <c r="N55" s="30"/>
+      <c r="N55" s="28"/>
       <c r="O55" s="11"/>
       <c r="P55" s="11"/>
-      <c r="Q55" s="21"/>
+      <c r="Q55" s="20"/>
       <c r="R55" s="11"/>
     </row>
     <row r="56" ht="16.35" customHeight="1" spans="1:18">
@@ -3751,16 +3745,16 @@
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
-      <c r="L56" s="25"/>
+      <c r="L56" s="24"/>
       <c r="M56" s="11"/>
-      <c r="N56" s="30"/>
+      <c r="N56" s="28"/>
       <c r="O56" s="11"/>
       <c r="P56" s="11"/>
-      <c r="Q56" s="21"/>
+      <c r="Q56" s="20"/>
       <c r="R56" s="11"/>
     </row>
     <row r="57" ht="16.35" customHeight="1" spans="1:18">
@@ -3771,16 +3765,16 @@
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
       <c r="J57" s="11"/>
       <c r="K57" s="11"/>
-      <c r="L57" s="25"/>
+      <c r="L57" s="24"/>
       <c r="M57" s="11"/>
-      <c r="N57" s="30"/>
+      <c r="N57" s="28"/>
       <c r="O57" s="11"/>
       <c r="P57" s="11"/>
-      <c r="Q57" s="21"/>
+      <c r="Q57" s="20"/>
       <c r="R57" s="11"/>
     </row>
     <row r="58" ht="16.35" customHeight="1" spans="1:18">
@@ -3791,16 +3785,16 @@
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="21"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
       <c r="J58" s="11"/>
       <c r="K58" s="11"/>
-      <c r="L58" s="25"/>
+      <c r="L58" s="24"/>
       <c r="M58" s="11"/>
-      <c r="N58" s="30"/>
+      <c r="N58" s="28"/>
       <c r="O58" s="11"/>
       <c r="P58" s="11"/>
-      <c r="Q58" s="21"/>
+      <c r="Q58" s="20"/>
       <c r="R58" s="11"/>
     </row>
     <row r="59" ht="16.35" customHeight="1" spans="1:18">
@@ -3811,16 +3805,16 @@
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
       <c r="J59" s="11"/>
       <c r="K59" s="11"/>
-      <c r="L59" s="25"/>
+      <c r="L59" s="24"/>
       <c r="M59" s="11"/>
-      <c r="N59" s="30"/>
+      <c r="N59" s="28"/>
       <c r="O59" s="11"/>
       <c r="P59" s="11"/>
-      <c r="Q59" s="21"/>
+      <c r="Q59" s="20"/>
       <c r="R59" s="11"/>
     </row>
     <row r="60" ht="15.2" spans="1:18">
@@ -3831,16 +3825,16 @@
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
       <c r="J60" s="11"/>
       <c r="K60" s="11"/>
-      <c r="L60" s="25"/>
+      <c r="L60" s="24"/>
       <c r="M60" s="11"/>
-      <c r="N60" s="30"/>
+      <c r="N60" s="28"/>
       <c r="O60" s="11"/>
       <c r="P60" s="11"/>
-      <c r="Q60" s="21"/>
+      <c r="Q60" s="20"/>
       <c r="R60" s="11"/>
     </row>
     <row r="61" ht="15.2" spans="1:18">
@@ -3851,16 +3845,16 @@
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
       <c r="J61" s="11"/>
       <c r="K61" s="11"/>
-      <c r="L61" s="25"/>
+      <c r="L61" s="24"/>
       <c r="M61" s="11"/>
-      <c r="N61" s="30"/>
+      <c r="N61" s="28"/>
       <c r="O61" s="11"/>
       <c r="P61" s="11"/>
-      <c r="Q61" s="21"/>
+      <c r="Q61" s="20"/>
       <c r="R61" s="11"/>
     </row>
     <row r="62" ht="15.2" spans="1:18">
@@ -3871,16 +3865,16 @@
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="21"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
       <c r="J62" s="11"/>
       <c r="K62" s="11"/>
-      <c r="L62" s="25"/>
+      <c r="L62" s="24"/>
       <c r="M62" s="11"/>
-      <c r="N62" s="30"/>
+      <c r="N62" s="28"/>
       <c r="O62" s="11"/>
       <c r="P62" s="11"/>
-      <c r="Q62" s="21"/>
+      <c r="Q62" s="20"/>
       <c r="R62" s="11"/>
     </row>
     <row r="63" ht="15.2" spans="1:18">
@@ -3891,16 +3885,16 @@
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
-      <c r="L63" s="25"/>
+      <c r="L63" s="24"/>
       <c r="M63" s="11"/>
-      <c r="N63" s="30"/>
+      <c r="N63" s="28"/>
       <c r="O63" s="11"/>
       <c r="P63" s="11"/>
-      <c r="Q63" s="21"/>
+      <c r="Q63" s="20"/>
       <c r="R63" s="11"/>
     </row>
     <row r="64" ht="15.2" spans="1:18">
@@ -3911,16 +3905,16 @@
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
       <c r="J64" s="11"/>
       <c r="K64" s="11"/>
-      <c r="L64" s="25"/>
+      <c r="L64" s="24"/>
       <c r="M64" s="11"/>
-      <c r="N64" s="30"/>
+      <c r="N64" s="28"/>
       <c r="O64" s="11"/>
       <c r="P64" s="11"/>
-      <c r="Q64" s="21"/>
+      <c r="Q64" s="20"/>
       <c r="R64" s="11"/>
     </row>
     <row r="65" ht="15.2" spans="1:18">
@@ -3931,16 +3925,16 @@
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
       <c r="J65" s="11"/>
       <c r="K65" s="11"/>
-      <c r="L65" s="25"/>
+      <c r="L65" s="24"/>
       <c r="M65" s="11"/>
-      <c r="N65" s="30"/>
+      <c r="N65" s="28"/>
       <c r="O65" s="11"/>
       <c r="P65" s="11"/>
-      <c r="Q65" s="21"/>
+      <c r="Q65" s="20"/>
       <c r="R65" s="11"/>
     </row>
     <row r="66" ht="15.2" spans="1:18">
@@ -3951,16 +3945,16 @@
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
       <c r="J66" s="11"/>
       <c r="K66" s="11"/>
-      <c r="L66" s="25"/>
+      <c r="L66" s="24"/>
       <c r="M66" s="11"/>
-      <c r="N66" s="30"/>
+      <c r="N66" s="28"/>
       <c r="O66" s="11"/>
       <c r="P66" s="11"/>
-      <c r="Q66" s="21"/>
+      <c r="Q66" s="20"/>
       <c r="R66" s="11"/>
     </row>
     <row r="67" ht="15.2" spans="1:18">
@@ -3971,16 +3965,16 @@
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="21"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
       <c r="J67" s="11"/>
       <c r="K67" s="11"/>
-      <c r="L67" s="25"/>
+      <c r="L67" s="24"/>
       <c r="M67" s="11"/>
-      <c r="N67" s="30"/>
+      <c r="N67" s="28"/>
       <c r="O67" s="11"/>
       <c r="P67" s="11"/>
-      <c r="Q67" s="21"/>
+      <c r="Q67" s="20"/>
       <c r="R67" s="11"/>
     </row>
     <row r="68" ht="15.2" spans="1:18">
@@ -3991,16 +3985,16 @@
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="21"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
       <c r="J68" s="11"/>
       <c r="K68" s="11"/>
-      <c r="L68" s="25"/>
+      <c r="L68" s="24"/>
       <c r="M68" s="11"/>
-      <c r="N68" s="30"/>
+      <c r="N68" s="28"/>
       <c r="O68" s="11"/>
       <c r="P68" s="11"/>
-      <c r="Q68" s="21"/>
+      <c r="Q68" s="20"/>
       <c r="R68" s="11"/>
     </row>
     <row r="69" ht="15.2" spans="1:18">
@@ -4011,16 +4005,16 @@
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="21"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
       <c r="J69" s="11"/>
       <c r="K69" s="11"/>
-      <c r="L69" s="25"/>
+      <c r="L69" s="24"/>
       <c r="M69" s="11"/>
-      <c r="N69" s="30"/>
+      <c r="N69" s="28"/>
       <c r="O69" s="11"/>
       <c r="P69" s="11"/>
-      <c r="Q69" s="21"/>
+      <c r="Q69" s="20"/>
       <c r="R69" s="11"/>
     </row>
   </sheetData>

--- a/data/menu_afternoon_tea.xlsx
+++ b/data/menu_afternoon_tea.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172">
   <si>
     <t>id</t>
   </si>
@@ -318,6 +318,42 @@
     <t>7</t>
   </si>
   <si>
+    <t>Miss molly</t>
+  </si>
+  <si>
+    <t>茉莉小姐</t>
+  </si>
+  <si>
+    <t>images/product/Mocktail/Miss_molly.png</t>
+  </si>
+  <si>
+    <t>Jasmine tea/Fresh guava juice/lemon juice</t>
+  </si>
+  <si>
+    <t>茉莉花茶/新鲜芭乐汁/柠檬汁</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Plant Paradise</t>
+  </si>
+  <si>
+    <t>植物乐园</t>
+  </si>
+  <si>
+    <t>images/product/Mocktail/Plant_Paradise.png</t>
+  </si>
+  <si>
+    <t>カルピス/Coconut juice/Coconut milk/Topsoda</t>
+  </si>
+  <si>
+    <t>可尔必思/椰汁/椰奶/苏打</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>Hot milk</t>
   </si>
   <si>
@@ -327,9 +363,6 @@
     <t>20/Bottle</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>Hot Chocolate</t>
   </si>
   <si>
@@ -339,9 +372,6 @@
     <t>22/Bottle</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>Americano</t>
   </si>
   <si>
@@ -351,6 +381,9 @@
     <t>22/Glass</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>Latte</t>
   </si>
   <si>
@@ -363,6 +396,9 @@
     <t>30/Glass</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>Cappuccino</t>
   </si>
   <si>
@@ -372,7 +408,7 @@
     <t>30/Bottle</t>
   </si>
   <si>
-    <t>12</t>
+    <t>14</t>
   </si>
   <si>
     <t>Espresso</t>
@@ -387,7 +423,7 @@
     <t>16/Bottle</t>
   </si>
   <si>
-    <t>13</t>
+    <t>15</t>
   </si>
   <si>
     <t>Soda water</t>
@@ -396,16 +432,13 @@
     <t>苏打水</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>Tonic water</t>
   </si>
   <si>
     <t>汤力水</t>
   </si>
   <si>
-    <t>15</t>
+    <t>17</t>
   </si>
   <si>
     <t>Coca cola</t>
@@ -414,13 +447,16 @@
     <t>可口可乐</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
     <t>Red bull energy drink</t>
   </si>
   <si>
     <t>红牛碳酸型</t>
   </si>
   <si>
-    <t>17</t>
+    <t>19</t>
   </si>
   <si>
     <t>Kiwi Banana Mousse</t>
@@ -441,9 +477,6 @@
     <t>images/product/Dessert/猕猴桃香蕉慕斯.png</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>White cheese lemon pomelo Mousse</t>
   </si>
   <si>
@@ -453,9 +486,6 @@
     <t>images/product/Dessert/白乳酪柠檬柚慕斯.png</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>Opera（Chocolate）</t>
   </si>
   <si>
@@ -490,6 +520,9 @@
   </si>
   <si>
     <t>images/product/Dessert/南瓜芝士蛋糕.png</t>
+  </si>
+  <si>
+    <t>25</t>
   </si>
   <si>
     <t>Match Cake</t>
@@ -507,10 +540,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -541,9 +574,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,10 +603,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -580,23 +674,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,78 +711,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -694,7 +727,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,61 +877,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,109 +907,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,26 +1014,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1029,6 +1045,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1046,8 +1077,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1070,142 +1103,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1249,10 +1282,13 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1649,259 +1685,259 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="11.5178571428571" style="33"/>
-    <col min="3" max="3" width="41.6607142857143" style="33" customWidth="1"/>
-    <col min="4" max="4" width="37.1785714285714" style="33" customWidth="1"/>
-    <col min="5" max="5" width="59.4732142857143" style="33" customWidth="1"/>
-    <col min="6" max="6" width="22.3571428571429" style="34" customWidth="1"/>
-    <col min="7" max="7" width="11.5178571428571" style="34"/>
-    <col min="8" max="8" width="16.2589285714286" style="33" customWidth="1"/>
-    <col min="9" max="9" width="18.1964285714286" style="33" customWidth="1"/>
-    <col min="10" max="1025" width="11.5178571428571" style="32"/>
-    <col min="1026" max="16384" width="9" style="32"/>
+    <col min="1" max="2" width="11.5178571428571" style="34"/>
+    <col min="3" max="3" width="41.6607142857143" style="34" customWidth="1"/>
+    <col min="4" max="4" width="37.1785714285714" style="34" customWidth="1"/>
+    <col min="5" max="5" width="59.4732142857143" style="34" customWidth="1"/>
+    <col min="6" max="6" width="22.3571428571429" style="35" customWidth="1"/>
+    <col min="7" max="7" width="11.5178571428571" style="35"/>
+    <col min="8" max="8" width="16.2589285714286" style="34" customWidth="1"/>
+    <col min="9" max="9" width="18.1964285714286" style="34" customWidth="1"/>
+    <col min="10" max="1025" width="11.5178571428571" style="33"/>
+    <col min="1026" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" s="32" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36" t="s">
+    <row r="1" s="33" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="36" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="32" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A2" s="37" t="s">
+    <row r="2" s="33" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="38">
         <v>1</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="42" t="b">
+      <c r="F2" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="G2" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="44"/>
-    </row>
-    <row r="3" s="32" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A3" s="37" t="s">
+      <c r="G2" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="38"/>
+      <c r="I2" s="45"/>
+    </row>
+    <row r="3" s="33" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="38">
         <v>2</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="42" t="b">
+      <c r="E3" s="38"/>
+      <c r="F3" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="G3" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="44"/>
-    </row>
-    <row r="4" s="32" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A4" s="37" t="s">
+      <c r="G3" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="38"/>
+      <c r="I3" s="45"/>
+    </row>
+    <row r="4" s="33" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A4" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="38">
         <v>1</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="42" t="b">
+      <c r="F4" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="44"/>
-    </row>
-    <row r="5" s="32" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A5" s="37" t="s">
+      <c r="G4" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="38"/>
+      <c r="I4" s="45"/>
+    </row>
+    <row r="5" s="33" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42" t="b">
+      <c r="E5" s="42"/>
+      <c r="F5" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="G5" s="42" t="b">
+      <c r="G5" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="44"/>
-    </row>
-    <row r="6" s="32" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A6" s="37" t="s">
+      <c r="H5" s="38"/>
+      <c r="I5" s="45"/>
+    </row>
+    <row r="6" s="33" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A6" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="38">
         <v>2</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="44"/>
-    </row>
-    <row r="7" s="32" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A7" s="37" t="s">
+      <c r="E6" s="38"/>
+      <c r="F6" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="38"/>
+      <c r="I6" s="45"/>
+    </row>
+    <row r="7" s="33" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A7" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="44"/>
-    </row>
-    <row r="8" s="32" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A8" s="38" t="s">
+      <c r="E7" s="38"/>
+      <c r="F7" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="38"/>
+      <c r="I7" s="45"/>
+    </row>
+    <row r="8" s="33" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A8" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="38">
         <v>2</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="44"/>
-    </row>
-    <row r="9" s="32" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A9" s="37" t="s">
+      <c r="E8" s="38"/>
+      <c r="F8" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="38"/>
+      <c r="I8" s="45"/>
+    </row>
+    <row r="9" s="33" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A9" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="38">
         <v>1</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="42" t="b">
+      <c r="F9" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="G9" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="37"/>
-      <c r="I9" s="44"/>
-    </row>
-    <row r="10" s="32" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A10" s="39" t="s">
+      <c r="G9" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="38"/>
+      <c r="I9" s="45"/>
+    </row>
+    <row r="10" s="33" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A10" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="42" t="b">
+      <c r="E10" s="40"/>
+      <c r="F10" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="G10" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="45"/>
+      <c r="G10" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="40"/>
+      <c r="I10" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.02430555555556" bottom="1.02430555555556" header="0.7875" footer="0.7875"/>
@@ -1916,10 +1952,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:R69"/>
+  <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:G6"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1975,13 +2011,13 @@
       <c r="K1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="22" t="s">
         <v>49</v>
       </c>
       <c r="O1" s="4" t="s">
@@ -2031,13 +2067,13 @@
       <c r="K2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="N2" s="27" t="s">
         <v>62</v>
       </c>
       <c r="O2" s="6" t="s">
@@ -2085,13 +2121,13 @@
       <c r="K3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="27" t="s">
         <v>71</v>
       </c>
       <c r="O3" s="6" t="s">
@@ -2139,13 +2175,13 @@
       <c r="K4" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="N4" s="26" t="s">
+      <c r="N4" s="27" t="s">
         <v>76</v>
       </c>
       <c r="O4" s="6" t="s">
@@ -2193,13 +2229,13 @@
       <c r="K5" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="L5" s="22" t="s">
+      <c r="L5" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="M5" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="N5" s="26" t="s">
+      <c r="N5" s="27" t="s">
         <v>83</v>
       </c>
       <c r="O5" s="6" t="s">
@@ -2250,10 +2286,10 @@
       <c r="L6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="M6" s="25" t="s">
+      <c r="M6" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="N6" s="26" t="s">
+      <c r="N6" s="27" t="s">
         <v>92</v>
       </c>
       <c r="O6" s="6" t="s">
@@ -2262,7 +2298,7 @@
       <c r="P6" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="Q6" s="17" t="b">
+      <c r="Q6" s="19" t="b">
         <v>1</v>
       </c>
       <c r="R6" s="11"/>
@@ -2304,10 +2340,10 @@
       <c r="L7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="25" t="s">
+      <c r="M7" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="N7" s="26" t="s">
+      <c r="N7" s="27" t="s">
         <v>98</v>
       </c>
       <c r="O7" s="6" t="s">
@@ -2316,145 +2352,161 @@
       <c r="P7" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="Q7" s="17" t="b">
+      <c r="Q7" s="19" t="b">
         <v>1</v>
       </c>
       <c r="R7" s="11"/>
     </row>
-    <row r="8" ht="16.35" customHeight="1" spans="1:18">
+    <row r="8" ht="20" customHeight="1" spans="1:18">
       <c r="A8" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="F8" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="H8" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="N8" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q8" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="R8" s="9"/>
+    </row>
+    <row r="9" ht="20" customHeight="1" spans="1:18">
+      <c r="A9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q8" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="R8" s="11"/>
-    </row>
-    <row r="9" ht="16.35" customHeight="1" spans="1:18">
-      <c r="A9" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H9" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q9" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="R9" s="11"/>
+      <c r="K9" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="N9" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q9" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="R9" s="9"/>
     </row>
     <row r="10" ht="16.35" customHeight="1" spans="1:18">
       <c r="A10" s="4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="H10" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>89</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="27"/>
       <c r="O10" s="7" t="s">
         <v>63</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q10" s="29" t="s">
+      <c r="Q10" s="30" t="s">
         <v>65</v>
       </c>
       <c r="R10" s="11"/>
@@ -2464,43 +2516,43 @@
         <v>64</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="H11" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H11" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>89</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="27"/>
       <c r="O11" s="7" t="s">
         <v>63</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q11" s="29" t="s">
+      <c r="Q11" s="30" t="s">
         <v>65</v>
       </c>
       <c r="R11" s="11"/>
@@ -2510,10 +2562,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>26</v>
@@ -2522,44 +2574,44 @@
         <v>55</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H12" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="H12" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6" t="s">
         <v>89</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="27"/>
       <c r="O12" s="7" t="s">
         <v>63</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q12" s="29" t="s">
+      <c r="Q12" s="30" t="s">
         <v>65</v>
       </c>
       <c r="R12" s="11"/>
     </row>
     <row r="13" ht="16.35" customHeight="1" spans="1:18">
       <c r="A13" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>26</v>
@@ -2568,61 +2620,61 @@
         <v>55</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H13" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>89</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="27"/>
       <c r="O13" s="7" t="s">
         <v>63</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q13" s="29" t="s">
+      <c r="Q13" s="30" t="s">
         <v>65</v>
       </c>
       <c r="R13" s="11"/>
     </row>
     <row r="14" ht="16.35" customHeight="1" spans="1:18">
       <c r="A14" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>77</v>
+      <c r="F14" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H14" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="17" t="b">
+        <v>129</v>
+      </c>
+      <c r="H14" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="19" t="b">
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
@@ -2630,45 +2682,45 @@
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="27"/>
       <c r="O14" s="7" t="s">
         <v>63</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q14" s="29" t="s">
+      <c r="Q14" s="30" t="s">
         <v>65</v>
       </c>
       <c r="R14" s="11"/>
     </row>
     <row r="15" ht="16.35" customHeight="1" spans="1:18">
       <c r="A15" s="4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>77</v>
+      <c r="F15" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H15" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="17" t="b">
+        <v>134</v>
+      </c>
+      <c r="H15" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="19" t="b">
         <v>0</v>
       </c>
       <c r="J15" s="7" t="s">
@@ -2676,28 +2728,28 @@
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="27"/>
       <c r="O15" s="7" t="s">
         <v>63</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q15" s="29" t="s">
+      <c r="Q15" s="30" t="s">
         <v>65</v>
       </c>
       <c r="R15" s="11"/>
     </row>
     <row r="16" ht="16.35" customHeight="1" spans="1:18">
       <c r="A16" s="4" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>29</v>
@@ -2709,12 +2761,12 @@
         <v>77</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H16" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="17" t="b">
+        <v>129</v>
+      </c>
+      <c r="H16" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="19" t="b">
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
@@ -2722,28 +2774,28 @@
       </c>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="27"/>
       <c r="O16" s="7" t="s">
         <v>63</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q16" s="29" t="s">
+      <c r="Q16" s="30" t="s">
         <v>65</v>
       </c>
       <c r="R16" s="11"/>
     </row>
     <row r="17" ht="16.35" customHeight="1" spans="1:18">
       <c r="A17" s="4" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>29</v>
@@ -2752,15 +2804,15 @@
         <v>55</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H17" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="17" t="b">
+        <v>129</v>
+      </c>
+      <c r="H17" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="19" t="b">
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
@@ -2768,124 +2820,120 @@
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="27"/>
       <c r="O17" s="7" t="s">
         <v>63</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q17" s="29" t="s">
+      <c r="Q17" s="30" t="s">
         <v>65</v>
       </c>
       <c r="R17" s="11"/>
     </row>
-    <row r="18" customFormat="1" ht="20" customHeight="1" spans="1:18">
+    <row r="18" ht="16.35" customHeight="1" spans="1:18">
       <c r="A18" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>138</v>
+      <c r="F18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="H18" s="19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="L18" s="10"/>
-      <c r="M18" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="26"/>
       <c r="N18" s="27"/>
-      <c r="O18" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="P18" s="8" t="s">
+      <c r="O18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>63</v>
       </c>
       <c r="Q18" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="R18" s="9"/>
-    </row>
-    <row r="19" customFormat="1" ht="20" customHeight="1" spans="1:18">
+      <c r="R18" s="11"/>
+    </row>
+    <row r="19" ht="16.35" customHeight="1" spans="1:18">
       <c r="A19" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C19" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="B19" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>138</v>
+      <c r="F19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="H19" s="19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="L19" s="10"/>
-      <c r="M19" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="26"/>
       <c r="N19" s="27"/>
-      <c r="O19" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="P19" s="8" t="s">
+      <c r="O19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>63</v>
       </c>
       <c r="Q19" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="R19" s="9"/>
+      <c r="R19" s="11"/>
     </row>
     <row r="20" customFormat="1" ht="20" customHeight="1" spans="1:18">
       <c r="A20" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>36</v>
@@ -2894,33 +2942,33 @@
         <v>55</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="H20" s="19" t="b">
+        <v>149</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="H20" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="I20" s="19" t="b">
+      <c r="I20" s="20" t="b">
         <v>1</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L20" s="10"/>
       <c r="M20" s="9"/>
-      <c r="N20" s="27"/>
+      <c r="N20" s="28"/>
       <c r="O20" s="8" t="s">
         <v>63</v>
       </c>
       <c r="P20" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="Q20" s="30" t="s">
+      <c r="Q20" s="31" t="s">
         <v>65</v>
       </c>
       <c r="R20" s="9"/>
@@ -2930,10 +2978,10 @@
         <v>77</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>36</v>
@@ -2942,33 +2990,33 @@
         <v>55</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="H21" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="19" t="b">
-        <v>0</v>
+        <v>149</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="H21" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="20" t="b">
+        <v>1</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L21" s="10"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="27"/>
+      <c r="N21" s="28"/>
       <c r="O21" s="8" t="s">
         <v>63</v>
       </c>
       <c r="P21" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="Q21" s="30" t="s">
+      <c r="Q21" s="31" t="s">
         <v>65</v>
       </c>
       <c r="R21" s="9"/>
@@ -2978,10 +3026,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>36</v>
@@ -2990,33 +3038,33 @@
         <v>55</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="H22" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" s="19" t="b">
-        <v>0</v>
+        <v>149</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="H22" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="20" t="b">
+        <v>1</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="L22" s="9"/>
+        <v>158</v>
+      </c>
+      <c r="L22" s="10"/>
       <c r="M22" s="9"/>
-      <c r="N22" s="27"/>
+      <c r="N22" s="28"/>
       <c r="O22" s="8" t="s">
         <v>63</v>
       </c>
       <c r="P22" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="Q22" s="30" t="s">
+      <c r="Q22" s="31" t="s">
         <v>65</v>
       </c>
       <c r="R22" s="9"/>
@@ -3025,11 +3073,11 @@
       <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>155</v>
+      <c r="B23" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>36</v>
@@ -3038,33 +3086,33 @@
         <v>55</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="H23" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" s="19" t="b">
+        <v>149</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="H23" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="20" t="b">
         <v>0</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="L23" s="9"/>
+        <v>161</v>
+      </c>
+      <c r="L23" s="10"/>
       <c r="M23" s="9"/>
-      <c r="N23" s="27"/>
+      <c r="N23" s="28"/>
       <c r="O23" s="8" t="s">
         <v>63</v>
       </c>
       <c r="P23" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="Q23" s="30" t="s">
+      <c r="Q23" s="31" t="s">
         <v>65</v>
       </c>
       <c r="R23" s="9"/>
@@ -3074,10 +3122,10 @@
         <v>26</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>36</v>
@@ -3086,115 +3134,171 @@
         <v>55</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="H24" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" s="19" t="b">
+        <v>149</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="H24" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="20" t="b">
         <v>0</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L24" s="9"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="28"/>
       <c r="O24" s="8" t="s">
         <v>63</v>
       </c>
       <c r="P24" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="Q24" s="30" t="s">
+      <c r="Q24" s="31" t="s">
         <v>65</v>
       </c>
       <c r="R24" s="9"/>
     </row>
-    <row r="25" ht="16.35" customHeight="1" spans="1:18">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="11"/>
+    <row r="25" customFormat="1" ht="20" customHeight="1" spans="1:18">
+      <c r="A25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="H25" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
       <c r="N25" s="28"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="11"/>
-    </row>
-    <row r="26" ht="16.35" customHeight="1" spans="1:18">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="11"/>
+      <c r="O25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q25" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="R25" s="9"/>
+    </row>
+    <row r="26" customFormat="1" ht="20" customHeight="1" spans="1:18">
+      <c r="A26" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="H26" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="L26" s="9"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q26" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="R26" s="9"/>
     </row>
     <row r="27" ht="16.35" customHeight="1" spans="1:18">
       <c r="A27" s="11"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
-      <c r="L27" s="23"/>
+      <c r="L27" s="24"/>
       <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
+      <c r="N27" s="29"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
-      <c r="Q27" s="20"/>
+      <c r="Q27" s="32"/>
       <c r="R27" s="11"/>
     </row>
     <row r="28" ht="16.35" customHeight="1" spans="1:18">
       <c r="A28" s="11"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
-      <c r="L28" s="23"/>
+      <c r="L28" s="24"/>
       <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
+      <c r="N28" s="29"/>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
-      <c r="Q28" s="20"/>
+      <c r="Q28" s="32"/>
       <c r="R28" s="11"/>
     </row>
     <row r="29" ht="16.35" customHeight="1" spans="1:18">
@@ -3205,16 +3309,16 @@
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
-      <c r="L29" s="23"/>
+      <c r="L29" s="24"/>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
-      <c r="Q29" s="20"/>
+      <c r="Q29" s="21"/>
       <c r="R29" s="11"/>
     </row>
     <row r="30" ht="16.35" customHeight="1" spans="1:18">
@@ -3225,16 +3329,16 @@
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
-      <c r="L30" s="23"/>
+      <c r="L30" s="24"/>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
-      <c r="Q30" s="20"/>
+      <c r="Q30" s="21"/>
       <c r="R30" s="11"/>
     </row>
     <row r="31" ht="16.35" customHeight="1" spans="1:18">
@@ -3245,16 +3349,16 @@
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
-      <c r="L31" s="23"/>
+      <c r="L31" s="24"/>
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
-      <c r="Q31" s="20"/>
+      <c r="Q31" s="21"/>
       <c r="R31" s="11"/>
     </row>
     <row r="32" ht="16.35" customHeight="1" spans="1:18">
@@ -3265,16 +3369,16 @@
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
-      <c r="L32" s="23"/>
+      <c r="L32" s="24"/>
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
-      <c r="Q32" s="20"/>
+      <c r="Q32" s="21"/>
       <c r="R32" s="11"/>
     </row>
     <row r="33" ht="16.35" customHeight="1" spans="1:18">
@@ -3285,16 +3389,16 @@
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
-      <c r="L33" s="23"/>
+      <c r="L33" s="24"/>
       <c r="M33" s="11"/>
-      <c r="N33" s="28"/>
+      <c r="N33" s="11"/>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
-      <c r="Q33" s="20"/>
+      <c r="Q33" s="21"/>
       <c r="R33" s="11"/>
     </row>
     <row r="34" ht="16.35" customHeight="1" spans="1:18">
@@ -3305,16 +3409,16 @@
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
-      <c r="L34" s="23"/>
+      <c r="L34" s="24"/>
       <c r="M34" s="11"/>
-      <c r="N34" s="28"/>
+      <c r="N34" s="11"/>
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
-      <c r="Q34" s="20"/>
+      <c r="Q34" s="21"/>
       <c r="R34" s="11"/>
     </row>
     <row r="35" ht="16.35" customHeight="1" spans="1:18">
@@ -3325,16 +3429,16 @@
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
-      <c r="L35" s="23"/>
+      <c r="L35" s="24"/>
       <c r="M35" s="11"/>
-      <c r="N35" s="28"/>
+      <c r="N35" s="29"/>
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
-      <c r="Q35" s="20"/>
+      <c r="Q35" s="21"/>
       <c r="R35" s="11"/>
     </row>
     <row r="36" ht="16.35" customHeight="1" spans="1:18">
@@ -3345,16 +3449,16 @@
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
-      <c r="L36" s="23"/>
+      <c r="L36" s="24"/>
       <c r="M36" s="11"/>
-      <c r="N36" s="28"/>
+      <c r="N36" s="29"/>
       <c r="O36" s="11"/>
       <c r="P36" s="11"/>
-      <c r="Q36" s="20"/>
+      <c r="Q36" s="21"/>
       <c r="R36" s="11"/>
     </row>
     <row r="37" ht="16.35" customHeight="1" spans="1:18">
@@ -3365,16 +3469,16 @@
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
-      <c r="L37" s="23"/>
+      <c r="L37" s="24"/>
       <c r="M37" s="11"/>
-      <c r="N37" s="28"/>
+      <c r="N37" s="29"/>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
-      <c r="Q37" s="20"/>
+      <c r="Q37" s="21"/>
       <c r="R37" s="11"/>
     </row>
     <row r="38" ht="16.35" customHeight="1" spans="1:18">
@@ -3385,16 +3489,16 @@
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
-      <c r="L38" s="23"/>
+      <c r="L38" s="24"/>
       <c r="M38" s="11"/>
-      <c r="N38" s="28"/>
+      <c r="N38" s="29"/>
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
-      <c r="Q38" s="20"/>
+      <c r="Q38" s="21"/>
       <c r="R38" s="11"/>
     </row>
     <row r="39" ht="16.35" customHeight="1" spans="1:18">
@@ -3405,16 +3509,16 @@
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
-      <c r="L39" s="23"/>
+      <c r="L39" s="24"/>
       <c r="M39" s="11"/>
-      <c r="N39" s="28"/>
+      <c r="N39" s="29"/>
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
-      <c r="Q39" s="20"/>
+      <c r="Q39" s="21"/>
       <c r="R39" s="11"/>
     </row>
     <row r="40" ht="16.35" customHeight="1" spans="1:18">
@@ -3425,16 +3529,16 @@
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
-      <c r="L40" s="23"/>
+      <c r="L40" s="24"/>
       <c r="M40" s="11"/>
-      <c r="N40" s="28"/>
+      <c r="N40" s="29"/>
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
-      <c r="Q40" s="20"/>
+      <c r="Q40" s="21"/>
       <c r="R40" s="11"/>
     </row>
     <row r="41" ht="16.35" customHeight="1" spans="1:18">
@@ -3445,16 +3549,16 @@
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
-      <c r="L41" s="23"/>
+      <c r="L41" s="24"/>
       <c r="M41" s="11"/>
-      <c r="N41" s="28"/>
+      <c r="N41" s="29"/>
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
-      <c r="Q41" s="20"/>
+      <c r="Q41" s="21"/>
       <c r="R41" s="11"/>
     </row>
     <row r="42" ht="16.35" customHeight="1" spans="1:18">
@@ -3465,16 +3569,16 @@
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
-      <c r="L42" s="23"/>
+      <c r="L42" s="24"/>
       <c r="M42" s="11"/>
-      <c r="N42" s="28"/>
+      <c r="N42" s="29"/>
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
-      <c r="Q42" s="20"/>
+      <c r="Q42" s="21"/>
       <c r="R42" s="11"/>
     </row>
     <row r="43" ht="16.35" customHeight="1" spans="1:18">
@@ -3485,16 +3589,16 @@
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
-      <c r="L43" s="23"/>
+      <c r="L43" s="24"/>
       <c r="M43" s="11"/>
-      <c r="N43" s="28"/>
+      <c r="N43" s="29"/>
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
-      <c r="Q43" s="20"/>
+      <c r="Q43" s="21"/>
       <c r="R43" s="11"/>
     </row>
     <row r="44" ht="16.35" customHeight="1" spans="1:18">
@@ -3505,16 +3609,16 @@
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
-      <c r="L44" s="23"/>
+      <c r="L44" s="24"/>
       <c r="M44" s="11"/>
-      <c r="N44" s="28"/>
+      <c r="N44" s="29"/>
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
-      <c r="Q44" s="20"/>
+      <c r="Q44" s="21"/>
       <c r="R44" s="11"/>
     </row>
     <row r="45" ht="16.35" customHeight="1" spans="1:18">
@@ -3525,16 +3629,16 @@
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
       <c r="L45" s="24"/>
       <c r="M45" s="11"/>
-      <c r="N45" s="28"/>
+      <c r="N45" s="29"/>
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
-      <c r="Q45" s="20"/>
+      <c r="Q45" s="21"/>
       <c r="R45" s="11"/>
     </row>
     <row r="46" ht="16.35" customHeight="1" spans="1:18">
@@ -3545,16 +3649,16 @@
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
       <c r="L46" s="24"/>
       <c r="M46" s="11"/>
-      <c r="N46" s="28"/>
+      <c r="N46" s="29"/>
       <c r="O46" s="11"/>
       <c r="P46" s="11"/>
-      <c r="Q46" s="20"/>
+      <c r="Q46" s="21"/>
       <c r="R46" s="11"/>
     </row>
     <row r="47" ht="16.35" customHeight="1" spans="1:18">
@@ -3565,16 +3669,16 @@
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
-      <c r="L47" s="24"/>
+      <c r="L47" s="25"/>
       <c r="M47" s="11"/>
-      <c r="N47" s="28"/>
+      <c r="N47" s="29"/>
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
-      <c r="Q47" s="20"/>
+      <c r="Q47" s="21"/>
       <c r="R47" s="11"/>
     </row>
     <row r="48" ht="16.35" customHeight="1" spans="1:18">
@@ -3585,16 +3689,16 @@
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
-      <c r="L48" s="24"/>
+      <c r="L48" s="25"/>
       <c r="M48" s="11"/>
-      <c r="N48" s="28"/>
+      <c r="N48" s="29"/>
       <c r="O48" s="11"/>
       <c r="P48" s="11"/>
-      <c r="Q48" s="20"/>
+      <c r="Q48" s="21"/>
       <c r="R48" s="11"/>
     </row>
     <row r="49" ht="16.35" customHeight="1" spans="1:18">
@@ -3605,16 +3709,16 @@
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
-      <c r="L49" s="24"/>
+      <c r="L49" s="25"/>
       <c r="M49" s="11"/>
-      <c r="N49" s="28"/>
+      <c r="N49" s="29"/>
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
-      <c r="Q49" s="20"/>
+      <c r="Q49" s="21"/>
       <c r="R49" s="11"/>
     </row>
     <row r="50" ht="16.35" customHeight="1" spans="1:18">
@@ -3625,16 +3729,16 @@
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
-      <c r="L50" s="24"/>
+      <c r="L50" s="25"/>
       <c r="M50" s="11"/>
-      <c r="N50" s="28"/>
+      <c r="N50" s="29"/>
       <c r="O50" s="11"/>
       <c r="P50" s="11"/>
-      <c r="Q50" s="20"/>
+      <c r="Q50" s="21"/>
       <c r="R50" s="11"/>
     </row>
     <row r="51" ht="16.35" customHeight="1" spans="1:18">
@@ -3645,56 +3749,56 @@
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
-      <c r="L51" s="24"/>
+      <c r="L51" s="25"/>
       <c r="M51" s="11"/>
-      <c r="N51" s="28"/>
+      <c r="N51" s="29"/>
       <c r="O51" s="11"/>
       <c r="P51" s="11"/>
-      <c r="Q51" s="20"/>
+      <c r="Q51" s="21"/>
       <c r="R51" s="11"/>
     </row>
     <row r="52" ht="16.35" customHeight="1" spans="1:18">
       <c r="A52" s="11"/>
-      <c r="B52" s="12"/>
+      <c r="B52" s="13"/>
       <c r="C52" s="12"/>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
-      <c r="L52" s="24"/>
+      <c r="L52" s="25"/>
       <c r="M52" s="11"/>
-      <c r="N52" s="28"/>
+      <c r="N52" s="29"/>
       <c r="O52" s="11"/>
       <c r="P52" s="11"/>
-      <c r="Q52" s="20"/>
+      <c r="Q52" s="21"/>
       <c r="R52" s="11"/>
     </row>
     <row r="53" ht="16.35" customHeight="1" spans="1:18">
       <c r="A53" s="11"/>
-      <c r="B53" s="12"/>
+      <c r="B53" s="13"/>
       <c r="C53" s="12"/>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
       <c r="J53" s="11"/>
       <c r="K53" s="11"/>
-      <c r="L53" s="24"/>
+      <c r="L53" s="25"/>
       <c r="M53" s="11"/>
-      <c r="N53" s="28"/>
+      <c r="N53" s="29"/>
       <c r="O53" s="11"/>
       <c r="P53" s="11"/>
-      <c r="Q53" s="20"/>
+      <c r="Q53" s="21"/>
       <c r="R53" s="11"/>
     </row>
     <row r="54" ht="16.35" customHeight="1" spans="1:18">
@@ -3705,16 +3809,16 @@
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>
-      <c r="L54" s="24"/>
+      <c r="L54" s="25"/>
       <c r="M54" s="11"/>
-      <c r="N54" s="28"/>
+      <c r="N54" s="29"/>
       <c r="O54" s="11"/>
       <c r="P54" s="11"/>
-      <c r="Q54" s="20"/>
+      <c r="Q54" s="21"/>
       <c r="R54" s="11"/>
     </row>
     <row r="55" ht="16.35" customHeight="1" spans="1:18">
@@ -3725,16 +3829,16 @@
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
       <c r="J55" s="11"/>
       <c r="K55" s="11"/>
-      <c r="L55" s="24"/>
+      <c r="L55" s="25"/>
       <c r="M55" s="11"/>
-      <c r="N55" s="28"/>
+      <c r="N55" s="29"/>
       <c r="O55" s="11"/>
       <c r="P55" s="11"/>
-      <c r="Q55" s="20"/>
+      <c r="Q55" s="21"/>
       <c r="R55" s="11"/>
     </row>
     <row r="56" ht="16.35" customHeight="1" spans="1:18">
@@ -3745,16 +3849,16 @@
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
-      <c r="L56" s="24"/>
+      <c r="L56" s="25"/>
       <c r="M56" s="11"/>
-      <c r="N56" s="28"/>
+      <c r="N56" s="29"/>
       <c r="O56" s="11"/>
       <c r="P56" s="11"/>
-      <c r="Q56" s="20"/>
+      <c r="Q56" s="21"/>
       <c r="R56" s="11"/>
     </row>
     <row r="57" ht="16.35" customHeight="1" spans="1:18">
@@ -3765,16 +3869,16 @@
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
       <c r="J57" s="11"/>
       <c r="K57" s="11"/>
-      <c r="L57" s="24"/>
+      <c r="L57" s="25"/>
       <c r="M57" s="11"/>
-      <c r="N57" s="28"/>
+      <c r="N57" s="29"/>
       <c r="O57" s="11"/>
       <c r="P57" s="11"/>
-      <c r="Q57" s="20"/>
+      <c r="Q57" s="21"/>
       <c r="R57" s="11"/>
     </row>
     <row r="58" ht="16.35" customHeight="1" spans="1:18">
@@ -3785,16 +3889,16 @@
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
       <c r="J58" s="11"/>
       <c r="K58" s="11"/>
-      <c r="L58" s="24"/>
+      <c r="L58" s="25"/>
       <c r="M58" s="11"/>
-      <c r="N58" s="28"/>
+      <c r="N58" s="29"/>
       <c r="O58" s="11"/>
       <c r="P58" s="11"/>
-      <c r="Q58" s="20"/>
+      <c r="Q58" s="21"/>
       <c r="R58" s="11"/>
     </row>
     <row r="59" ht="16.35" customHeight="1" spans="1:18">
@@ -3805,19 +3909,19 @@
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
       <c r="J59" s="11"/>
       <c r="K59" s="11"/>
-      <c r="L59" s="24"/>
+      <c r="L59" s="25"/>
       <c r="M59" s="11"/>
-      <c r="N59" s="28"/>
+      <c r="N59" s="29"/>
       <c r="O59" s="11"/>
       <c r="P59" s="11"/>
-      <c r="Q59" s="20"/>
+      <c r="Q59" s="21"/>
       <c r="R59" s="11"/>
     </row>
-    <row r="60" ht="15.2" spans="1:18">
+    <row r="60" ht="16.35" customHeight="1" spans="1:18">
       <c r="A60" s="11"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -3825,19 +3929,19 @@
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
       <c r="J60" s="11"/>
       <c r="K60" s="11"/>
-      <c r="L60" s="24"/>
+      <c r="L60" s="25"/>
       <c r="M60" s="11"/>
-      <c r="N60" s="28"/>
+      <c r="N60" s="29"/>
       <c r="O60" s="11"/>
       <c r="P60" s="11"/>
-      <c r="Q60" s="20"/>
+      <c r="Q60" s="21"/>
       <c r="R60" s="11"/>
     </row>
-    <row r="61" ht="15.2" spans="1:18">
+    <row r="61" ht="16.35" customHeight="1" spans="1:18">
       <c r="A61" s="11"/>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
@@ -3845,16 +3949,16 @@
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
       <c r="J61" s="11"/>
       <c r="K61" s="11"/>
-      <c r="L61" s="24"/>
+      <c r="L61" s="25"/>
       <c r="M61" s="11"/>
-      <c r="N61" s="28"/>
+      <c r="N61" s="29"/>
       <c r="O61" s="11"/>
       <c r="P61" s="11"/>
-      <c r="Q61" s="20"/>
+      <c r="Q61" s="21"/>
       <c r="R61" s="11"/>
     </row>
     <row r="62" ht="15.2" spans="1:18">
@@ -3865,16 +3969,16 @@
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
       <c r="J62" s="11"/>
       <c r="K62" s="11"/>
-      <c r="L62" s="24"/>
+      <c r="L62" s="25"/>
       <c r="M62" s="11"/>
-      <c r="N62" s="28"/>
+      <c r="N62" s="29"/>
       <c r="O62" s="11"/>
       <c r="P62" s="11"/>
-      <c r="Q62" s="20"/>
+      <c r="Q62" s="21"/>
       <c r="R62" s="11"/>
     </row>
     <row r="63" ht="15.2" spans="1:18">
@@ -3885,16 +3989,16 @@
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
-      <c r="L63" s="24"/>
+      <c r="L63" s="25"/>
       <c r="M63" s="11"/>
-      <c r="N63" s="28"/>
+      <c r="N63" s="29"/>
       <c r="O63" s="11"/>
       <c r="P63" s="11"/>
-      <c r="Q63" s="20"/>
+      <c r="Q63" s="21"/>
       <c r="R63" s="11"/>
     </row>
     <row r="64" ht="15.2" spans="1:18">
@@ -3905,16 +4009,16 @@
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
       <c r="J64" s="11"/>
       <c r="K64" s="11"/>
-      <c r="L64" s="24"/>
+      <c r="L64" s="25"/>
       <c r="M64" s="11"/>
-      <c r="N64" s="28"/>
+      <c r="N64" s="29"/>
       <c r="O64" s="11"/>
       <c r="P64" s="11"/>
-      <c r="Q64" s="20"/>
+      <c r="Q64" s="21"/>
       <c r="R64" s="11"/>
     </row>
     <row r="65" ht="15.2" spans="1:18">
@@ -3925,16 +4029,16 @@
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
       <c r="J65" s="11"/>
       <c r="K65" s="11"/>
-      <c r="L65" s="24"/>
+      <c r="L65" s="25"/>
       <c r="M65" s="11"/>
-      <c r="N65" s="28"/>
+      <c r="N65" s="29"/>
       <c r="O65" s="11"/>
       <c r="P65" s="11"/>
-      <c r="Q65" s="20"/>
+      <c r="Q65" s="21"/>
       <c r="R65" s="11"/>
     </row>
     <row r="66" ht="15.2" spans="1:18">
@@ -3945,16 +4049,16 @@
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
       <c r="J66" s="11"/>
       <c r="K66" s="11"/>
-      <c r="L66" s="24"/>
+      <c r="L66" s="25"/>
       <c r="M66" s="11"/>
-      <c r="N66" s="28"/>
+      <c r="N66" s="29"/>
       <c r="O66" s="11"/>
       <c r="P66" s="11"/>
-      <c r="Q66" s="20"/>
+      <c r="Q66" s="21"/>
       <c r="R66" s="11"/>
     </row>
     <row r="67" ht="15.2" spans="1:18">
@@ -3965,16 +4069,16 @@
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
       <c r="J67" s="11"/>
       <c r="K67" s="11"/>
-      <c r="L67" s="24"/>
+      <c r="L67" s="25"/>
       <c r="M67" s="11"/>
-      <c r="N67" s="28"/>
+      <c r="N67" s="29"/>
       <c r="O67" s="11"/>
       <c r="P67" s="11"/>
-      <c r="Q67" s="20"/>
+      <c r="Q67" s="21"/>
       <c r="R67" s="11"/>
     </row>
     <row r="68" ht="15.2" spans="1:18">
@@ -3985,16 +4089,16 @@
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="20"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
       <c r="J68" s="11"/>
       <c r="K68" s="11"/>
-      <c r="L68" s="24"/>
+      <c r="L68" s="25"/>
       <c r="M68" s="11"/>
-      <c r="N68" s="28"/>
+      <c r="N68" s="29"/>
       <c r="O68" s="11"/>
       <c r="P68" s="11"/>
-      <c r="Q68" s="20"/>
+      <c r="Q68" s="21"/>
       <c r="R68" s="11"/>
     </row>
     <row r="69" ht="15.2" spans="1:18">
@@ -4005,17 +4109,57 @@
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
       <c r="J69" s="11"/>
       <c r="K69" s="11"/>
-      <c r="L69" s="24"/>
+      <c r="L69" s="25"/>
       <c r="M69" s="11"/>
-      <c r="N69" s="28"/>
+      <c r="N69" s="29"/>
       <c r="O69" s="11"/>
       <c r="P69" s="11"/>
-      <c r="Q69" s="20"/>
+      <c r="Q69" s="21"/>
       <c r="R69" s="11"/>
+    </row>
+    <row r="70" ht="15.2" spans="1:18">
+      <c r="A70" s="11"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="25"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="29"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="21"/>
+      <c r="R70" s="11"/>
+    </row>
+    <row r="71" ht="15.2" spans="1:18">
+      <c r="A71" s="11"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="25"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="29"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="21"/>
+      <c r="R71" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.02430555555556" bottom="1.02430555555556" header="0.7875" footer="0.7875"/>

--- a/data/menu_afternoon_tea.xlsx
+++ b/data/menu_afternoon_tea.xlsx
@@ -1679,8 +1679,8 @@
   <sheetPr/>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -1817,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="38"/>
       <c r="I5" s="45"/>
@@ -1955,7 +1955,7 @@
   <dimension ref="A1:R71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C5" sqref="$A5:$XFD5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>

--- a/data/menu_afternoon_tea.xlsx
+++ b/data/menu_afternoon_tea.xlsx
@@ -1680,7 +1680,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C5" sqref="$A5:$XFD5"/>
+      <selection activeCell="D6" sqref="A1:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -1954,8 +1954,8 @@
   <sheetPr/>
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>

--- a/data/menu_afternoon_tea.xlsx
+++ b/data/menu_afternoon_tea.xlsx
@@ -541,9 +541,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -568,12 +568,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -581,8 +597,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,30 +645,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -634,16 +659,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -657,37 +704,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -695,24 +711,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -733,7 +733,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,49 +811,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,31 +829,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,37 +865,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,25 +883,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,8 +1006,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1021,25 +1032,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1060,32 +1062,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1100,141 +1076,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1679,8 +1679,8 @@
   <sheetPr/>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D6" sqref="A1:I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -1954,7 +1954,7 @@
   <sheetPr/>
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/data/menu_afternoon_tea.xlsx
+++ b/data/menu_afternoon_tea.xlsx
@@ -273,10 +273,10 @@
     <t>5</t>
   </si>
   <si>
-    <t>RT milk tea</t>
-  </si>
-  <si>
-    <t>RT奶茶</t>
+    <t>ROOTINN Milk tea</t>
+  </si>
+  <si>
+    <t>ROOTINN奶茶</t>
   </si>
   <si>
     <t>38</t>
@@ -540,10 +540,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -568,14 +568,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -589,9 +582,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,11 +627,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -621,8 +651,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -636,23 +675,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -660,45 +698,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -712,7 +712,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -727,7 +727,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,7 +739,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,43 +757,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,19 +775,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,25 +853,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,13 +871,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,31 +889,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,8 +1006,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1018,15 +1042,6 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1048,16 +1063,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1076,165 +1100,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1955,7 +1955,7 @@
   <dimension ref="A1:R71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>

--- a/data/menu_afternoon_tea.xlsx
+++ b/data/menu_afternoon_tea.xlsx
@@ -189,7 +189,7 @@
     <t>48</t>
   </si>
   <si>
-    <t>48/Glass</t>
+    <t>48/杯</t>
   </si>
   <si>
     <t>alcoholic drink</t>
@@ -282,7 +282,7 @@
     <t>38</t>
   </si>
   <si>
-    <t>38/Glass</t>
+    <t>38/杯</t>
   </si>
   <si>
     <t>soft drink</t>
@@ -360,7 +360,7 @@
     <t>热牛奶</t>
   </si>
   <si>
-    <t>20/Bottle</t>
+    <t>20/杯</t>
   </si>
   <si>
     <t>Hot Chocolate</t>
@@ -369,7 +369,7 @@
     <t>热可可</t>
   </si>
   <si>
-    <t>22/Bottle</t>
+    <t>22/杯</t>
   </si>
   <si>
     <t>Americano</t>
@@ -378,9 +378,6 @@
     <t>美式</t>
   </si>
   <si>
-    <t>22/Glass</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
@@ -393,7 +390,7 @@
     <t>30</t>
   </si>
   <si>
-    <t>30/Glass</t>
+    <t>30/杯</t>
   </si>
   <si>
     <t>13</t>
@@ -405,9 +402,6 @@
     <t>卡布奇诺</t>
   </si>
   <si>
-    <t>30/Bottle</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
@@ -420,7 +414,7 @@
     <t>16</t>
   </si>
   <si>
-    <t>16/Bottle</t>
+    <t>16/杯</t>
   </si>
   <si>
     <t>15</t>
@@ -432,6 +426,9 @@
     <t>苏打水</t>
   </si>
   <si>
+    <t>20/听</t>
+  </si>
+  <si>
     <t>Tonic water</t>
   </si>
   <si>
@@ -454,6 +451,9 @@
   </si>
   <si>
     <t>红牛碳酸型</t>
+  </si>
+  <si>
+    <t>30/听</t>
   </si>
   <si>
     <t>19</t>
@@ -540,10 +540,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -582,10 +582,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -596,16 +596,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,17 +620,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -651,9 +644,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -667,38 +673,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,8 +702,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -727,163 +727,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,6 +751,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -908,6 +842,72 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1021,28 +1021,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1063,25 +1061,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1100,129 +1089,140 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1231,7 +1231,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1954,8 +1954,8 @@
   <sheetPr/>
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H12" s="16" t="b">
         <v>0</v>
@@ -2605,13 +2605,13 @@
     </row>
     <row r="13" ht="16.35" customHeight="1" spans="1:18">
       <c r="A13" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>26</v>
@@ -2620,10 +2620,10 @@
         <v>55</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>125</v>
       </c>
       <c r="H13" s="16" t="b">
         <v>0</v>
@@ -2651,13 +2651,13 @@
     </row>
     <row r="14" ht="16.35" customHeight="1" spans="1:18">
       <c r="A14" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>26</v>
@@ -2666,10 +2666,10 @@
         <v>55</v>
       </c>
       <c r="F14" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H14" s="19" t="b">
         <v>0</v>
@@ -2697,13 +2697,13 @@
     </row>
     <row r="15" ht="16.35" customHeight="1" spans="1:18">
       <c r="A15" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>26</v>
@@ -2712,10 +2712,10 @@
         <v>55</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H15" s="19" t="b">
         <v>0</v>
@@ -2743,13 +2743,13 @@
     </row>
     <row r="16" ht="16.35" customHeight="1" spans="1:18">
       <c r="A16" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>29</v>
@@ -2761,7 +2761,7 @@
         <v>77</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="H16" s="19" t="b">
         <v>0</v>
@@ -2789,13 +2789,13 @@
     </row>
     <row r="17" ht="16.35" customHeight="1" spans="1:18">
       <c r="A17" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>29</v>
@@ -2807,7 +2807,7 @@
         <v>77</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="H17" s="19" t="b">
         <v>0</v>
@@ -2835,13 +2835,13 @@
     </row>
     <row r="18" ht="16.35" customHeight="1" spans="1:18">
       <c r="A18" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>29</v>
@@ -2853,7 +2853,7 @@
         <v>77</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="H18" s="19" t="b">
         <v>0</v>
@@ -2881,13 +2881,13 @@
     </row>
     <row r="19" ht="16.35" customHeight="1" spans="1:18">
       <c r="A19" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>29</v>
@@ -2896,10 +2896,10 @@
         <v>55</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="H19" s="19" t="b">
         <v>0</v>

--- a/data/menu_afternoon_tea.xlsx
+++ b/data/menu_afternoon_tea.xlsx
@@ -399,7 +399,7 @@
     <t>25</t>
   </si>
   <si>
-    <t>Tell you a secre</t>
+    <t>Tell you a secret</t>
   </si>
   <si>
     <t>告诉你个秘密</t>
@@ -780,6 +780,294 @@
     <t>龙舌兰酒/百香果糖浆/柠檬汁/茉莉花茶/橙汁/金桔</t>
   </si>
   <si>
+    <t>Martini</t>
+  </si>
+  <si>
+    <t>马提尼</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>80/杯</t>
+  </si>
+  <si>
+    <t>Gin/Dolin dry</t>
+  </si>
+  <si>
+    <t>金酒/杜林干</t>
+  </si>
+  <si>
+    <t>Negroni</t>
+  </si>
+  <si>
+    <t>尼格罗尼</t>
+  </si>
+  <si>
+    <t>Sweet+Bitter+Spicy</t>
+  </si>
+  <si>
+    <t>Gin/Vermoth/Campari</t>
+  </si>
+  <si>
+    <t>金酒/味美思/金巴利</t>
+  </si>
+  <si>
+    <t>Gin&amp;Tonic</t>
+  </si>
+  <si>
+    <t>金汤力</t>
+  </si>
+  <si>
+    <t>Gin/Tonic water</t>
+  </si>
+  <si>
+    <t>金酒/汤力水</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Singapore sling</t>
+  </si>
+  <si>
+    <t>新加坡司令</t>
+  </si>
+  <si>
+    <t>Gin/Cointreau/Gienadine syrup /Cherry liqueur/D.O.M /Pineapple juice/Angoutura bitter/Lemon juice</t>
+  </si>
+  <si>
+    <t>金酒/君度/樱桃利口酒/当酒/凤梨汁/安歌苦酒/柠檬汁</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Gimlet</t>
+  </si>
+  <si>
+    <t>琴姆勒</t>
+  </si>
+  <si>
+    <t>Gin/Lime juice</t>
+  </si>
+  <si>
+    <t>金酒/青柠汁</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Vesper</t>
+  </si>
+  <si>
+    <t>薄暮</t>
+  </si>
+  <si>
+    <t>Pure</t>
+  </si>
+  <si>
+    <t>Gin/Vodka/Lillrt blanc</t>
+  </si>
+  <si>
+    <t>金酒/伏特加/利莱白</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Clover club</t>
+  </si>
+  <si>
+    <t>三叶草俱乐部</t>
+  </si>
+  <si>
+    <t>Gin/Lemon juice/Raspberry Syrup/Vermouth/Egg white</t>
+  </si>
+  <si>
+    <t>金酒/柠檬汁/覆盆子糖浆/味美思/蛋清</t>
+  </si>
+  <si>
+    <t>Mojito</t>
+  </si>
+  <si>
+    <t>莫吉托</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>70/杯</t>
+  </si>
+  <si>
+    <t>Rum/Lime juice/Soda</t>
+  </si>
+  <si>
+    <t>朗姆酒/青柠汁/苏打水</t>
+  </si>
+  <si>
+    <t>Daiquiri</t>
+  </si>
+  <si>
+    <t>戴其力</t>
+  </si>
+  <si>
+    <t>Rum/Limejuice</t>
+  </si>
+  <si>
+    <t>朗姆酒/青柠汁</t>
+  </si>
+  <si>
+    <t>Zombie</t>
+  </si>
+  <si>
+    <t>僵尸</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>90/杯</t>
+  </si>
+  <si>
+    <t>Bacardi blanca/Bacardi gold/Cubita151/Lemon juice/Pineapple juice/Angostura bitter</t>
+  </si>
+  <si>
+    <t>百加得白朗姆/百加得金朗姆/古贝塔151/柠檬汁/安歌苦酒</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Old fashioned</t>
+  </si>
+  <si>
+    <t>古典</t>
+  </si>
+  <si>
+    <t>Maker’s mark  Whiskey/Rittenhouse rye /Angostura bitters/Orange bitters</t>
+  </si>
+  <si>
+    <t>美格威士忌/瑞顿房黑麦威士忌/安歌苦酒/橙味苦酒</t>
+  </si>
+  <si>
+    <t>Whiskey sour</t>
+  </si>
+  <si>
+    <t>威士忌酸</t>
+  </si>
+  <si>
+    <t>Maker’s mark  Whiskey/lemon juice/Angostura bitters</t>
+  </si>
+  <si>
+    <t>美格威士忌/柠檬汁/安歌苦酒</t>
+  </si>
+  <si>
+    <t>God father</t>
+  </si>
+  <si>
+    <t>教父</t>
+  </si>
+  <si>
+    <t>Talisker 10Y/Johnnie walker/Disaronno</t>
+  </si>
+  <si>
+    <t>泰斯卡10年/黑方/帝萨诺利口酒</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Cosmopolitan</t>
+  </si>
+  <si>
+    <t>大都会</t>
+  </si>
+  <si>
+    <t>Vodka/Cointreau/Cranberry juice/Lemon juice</t>
+  </si>
+  <si>
+    <t>伏特加/君度/蔓越莓汁/柠檬汁</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Long island ice tea</t>
+  </si>
+  <si>
+    <t>长岛冰茶</t>
+  </si>
+  <si>
+    <t>Vodka/White Rum/Gin/Tequila/Cointreau/Lemon juice/Cola</t>
+  </si>
+  <si>
+    <t>伏特加/白朗姆/龙舌兰/君度/柠檬汁/可乐</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Moscow mule</t>
+  </si>
+  <si>
+    <t>莫斯科骡子</t>
+  </si>
+  <si>
+    <t>Sweet+Sour+Spicy</t>
+  </si>
+  <si>
+    <t>Stolichnaya Vodka/Fresh ginger juice/Lime juice/Ginger ale</t>
+  </si>
+  <si>
+    <t>红牌伏特加/新鲜姜汁/青柠汁/姜啤</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Rosite</t>
+  </si>
+  <si>
+    <t>萝西塔</t>
+  </si>
+  <si>
+    <t>Olmeca silver Tequila/Dolin sweet vermouth/Dolin dry vermouth/Campari/Angostura bitters</t>
+  </si>
+  <si>
+    <t>奥美加银龙舌兰/杜林甜味美思/杜林干味美思/金巴利/安歌苦酒</t>
+  </si>
+  <si>
+    <t>Jack rose</t>
+  </si>
+  <si>
+    <t>杰克玫瑰</t>
+  </si>
+  <si>
+    <t>Calvados/Lemon juice/Molin grenadine syrup/Angostura bitters</t>
+  </si>
+  <si>
+    <t>卡尔瓦多斯白兰地/柠檬汁/红石榴糖浆/安歌苦酒</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Side car</t>
+  </si>
+  <si>
+    <t>边车</t>
+  </si>
+  <si>
+    <t>Brandy/Cointreau/lemon juice</t>
+  </si>
+  <si>
+    <t>白兰地/君度/柠檬汁</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
     <t>Hightball</t>
   </si>
   <si>
@@ -789,298 +1077,10 @@
     <t>images/product/cocktail/Hightball.png</t>
   </si>
   <si>
-    <t>Pure</t>
-  </si>
-  <si>
     <t>Suntory kaku/Soda</t>
   </si>
   <si>
     <t>三得利卡库/苏打水</t>
-  </si>
-  <si>
-    <t>Martini</t>
-  </si>
-  <si>
-    <t>马提尼</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>80/杯</t>
-  </si>
-  <si>
-    <t>Gin/Dolin dry</t>
-  </si>
-  <si>
-    <t>金酒/杜林干</t>
-  </si>
-  <si>
-    <t>Negroni</t>
-  </si>
-  <si>
-    <t>尼格罗尼</t>
-  </si>
-  <si>
-    <t>Sweet+Bitter+Spicy</t>
-  </si>
-  <si>
-    <t>Gin/Vermoth/Campari</t>
-  </si>
-  <si>
-    <t>金酒/味美思/金巴利</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Gin&amp;Tonic</t>
-  </si>
-  <si>
-    <t>金汤力</t>
-  </si>
-  <si>
-    <t>Gin/Tonic water</t>
-  </si>
-  <si>
-    <t>金酒/汤力水</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Singapore sling</t>
-  </si>
-  <si>
-    <t>新加坡司令</t>
-  </si>
-  <si>
-    <t>Gin/Cointreau/Gienadine syrup /Cherry liqueur/D.O.M /Pineapple juice/Angoutura bitter/Lemon juice</t>
-  </si>
-  <si>
-    <t>金酒/君度/樱桃利口酒/当酒/凤梨汁/安歌苦酒/柠檬汁</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Gimlet</t>
-  </si>
-  <si>
-    <t>琴姆勒</t>
-  </si>
-  <si>
-    <t>Gin/Lime juice</t>
-  </si>
-  <si>
-    <t>金酒/青柠汁</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>Vesper</t>
-  </si>
-  <si>
-    <t>薄暮</t>
-  </si>
-  <si>
-    <t>Gin/Vodka/Lillrt blanc</t>
-  </si>
-  <si>
-    <t>金酒/伏特加/利莱白</t>
-  </si>
-  <si>
-    <t>Clover club</t>
-  </si>
-  <si>
-    <t>三叶草俱乐部</t>
-  </si>
-  <si>
-    <t>Gin/Lemon juice/Raspberry Syrup/Vermouth/Egg white</t>
-  </si>
-  <si>
-    <t>金酒/柠檬汁/覆盆子糖浆/味美思/蛋清</t>
-  </si>
-  <si>
-    <t>Mojito</t>
-  </si>
-  <si>
-    <t>莫吉托</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>70/杯</t>
-  </si>
-  <si>
-    <t>Rum/Lime juice/Soda</t>
-  </si>
-  <si>
-    <t>朗姆酒/青柠汁/苏打水</t>
-  </si>
-  <si>
-    <t>Daiquiri</t>
-  </si>
-  <si>
-    <t>戴其力</t>
-  </si>
-  <si>
-    <t>Rum/Limejuice</t>
-  </si>
-  <si>
-    <t>朗姆酒/青柠汁</t>
-  </si>
-  <si>
-    <t>Zombie</t>
-  </si>
-  <si>
-    <t>僵尸</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>90/杯</t>
-  </si>
-  <si>
-    <t>Bacardi blanca/Bacardi gold/Cubita151/Lemon juice/Pineapple juice/Angostura bitter</t>
-  </si>
-  <si>
-    <t>百加得白朗姆/百加得金朗姆/古贝塔151/柠檬汁/安歌苦酒</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>Old fashioned</t>
-  </si>
-  <si>
-    <t>古典</t>
-  </si>
-  <si>
-    <t>Maker’s mark  Whiskey/Rittenhouse rye /Angostura bitters/Orange bitters</t>
-  </si>
-  <si>
-    <t>美格威士忌/瑞顿房黑麦威士忌/安歌苦酒/橙味苦酒</t>
-  </si>
-  <si>
-    <t>Whiskey sour</t>
-  </si>
-  <si>
-    <t>威士忌酸</t>
-  </si>
-  <si>
-    <t>Maker’s mark  Whiskey/lemon juice/Angostura bitters</t>
-  </si>
-  <si>
-    <t>美格威士忌/柠檬汁/安歌苦酒</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>God father</t>
-  </si>
-  <si>
-    <t>教父</t>
-  </si>
-  <si>
-    <t>Talisker 10Y/Johnnie walker/Disaronno</t>
-  </si>
-  <si>
-    <t>泰斯卡10年/黑方/帝萨诺利口酒</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>Cosmopolitan</t>
-  </si>
-  <si>
-    <t>大都会</t>
-  </si>
-  <si>
-    <t>Vodka/Cointreau/Cranberry juice/Lemon juice</t>
-  </si>
-  <si>
-    <t>伏特加/君度/蔓越莓汁/柠檬汁</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>Long island ice tea</t>
-  </si>
-  <si>
-    <t>长岛冰茶</t>
-  </si>
-  <si>
-    <t>Vodka/White Rum/Gin/Tequila/Cointreau/Lemon juice/Cola</t>
-  </si>
-  <si>
-    <t>伏特加/白朗姆/龙舌兰/君度/柠檬汁/可乐</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>Moscow mule</t>
-  </si>
-  <si>
-    <t>莫斯科骡子</t>
-  </si>
-  <si>
-    <t>Sweet+Sour+Spicy</t>
-  </si>
-  <si>
-    <t>Stolichnaya Vodka/Fresh ginger juice/Lime juice/Ginger ale</t>
-  </si>
-  <si>
-    <t>红牌伏特加/新鲜姜汁/青柠汁/姜啤</t>
-  </si>
-  <si>
-    <t>Rosite</t>
-  </si>
-  <si>
-    <t>萝西塔</t>
-  </si>
-  <si>
-    <t>Olmeca silver Tequila/Dolin sweet vermouth/Dolin dry vermouth/Campari/Angostura bitters</t>
-  </si>
-  <si>
-    <t>奥美加银龙舌兰/杜林甜味美思/杜林干味美思/金巴利/安歌苦酒</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Jack rose</t>
-  </si>
-  <si>
-    <t>杰克玫瑰</t>
-  </si>
-  <si>
-    <t>Calvados/Lemon juice/Molin grenadine syrup/Angostura bitters</t>
-  </si>
-  <si>
-    <t>卡尔瓦多斯白兰地/柠檬汁/红石榴糖浆/安歌苦酒</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Side car</t>
-  </si>
-  <si>
-    <t>边车</t>
-  </si>
-  <si>
-    <t>Brandy/Cointreau/lemon juice</t>
-  </si>
-  <si>
-    <t>白兰地/君度/柠檬汁</t>
   </si>
   <si>
     <t>43</t>
@@ -5319,8 +5319,8 @@
   <sheetPr/>
   <dimension ref="A1:AB221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="A215" sqref="A215:A221"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A43" sqref="$A43:$XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -6582,52 +6582,50 @@
       <c r="A24" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="9" t="s">
         <v>255</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>234</v>
+        <v>20</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>256</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="H24" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="K24" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="L24" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="M24" s="27" t="s">
+      <c r="H24" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K24" s="10"/>
+      <c r="L24" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="M24" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="N24" s="28" t="s">
+      <c r="N24" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="O24" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="P24" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q24" s="19" t="s">
+      <c r="O24" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q24" s="17" t="s">
         <v>167</v>
       </c>
       <c r="R24" s="5"/>
@@ -6649,10 +6647,10 @@
         <v>117</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>262</v>
+        <v>129</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>263</v>
+        <v>119</v>
       </c>
       <c r="H25" s="17" t="b">
         <v>0</v>
@@ -6665,34 +6663,34 @@
       </c>
       <c r="K25" s="10"/>
       <c r="L25" s="9" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="M25" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="N25" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="N25" s="26" t="s">
-        <v>265</v>
-      </c>
       <c r="O25" s="10" t="s">
         <v>125</v>
       </c>
       <c r="P25" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q25" s="17" t="s">
-        <v>167</v>
+        <v>225</v>
+      </c>
+      <c r="Q25" s="17" t="b">
+        <v>1</v>
       </c>
       <c r="R25" s="5"/>
     </row>
-    <row r="26" customFormat="1" ht="20" customHeight="1" spans="1:18">
+    <row r="26" ht="16.35" customHeight="1" spans="1:18">
       <c r="A26" s="6" t="s">
         <v>126</v>
       </c>
       <c r="B26" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>266</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>267</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>20</v>
@@ -6701,10 +6699,10 @@
         <v>117</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>129</v>
+        <v>234</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>119</v>
+        <v>235</v>
       </c>
       <c r="H26" s="17" t="b">
         <v>0</v>
@@ -6717,19 +6715,19 @@
       </c>
       <c r="K26" s="10"/>
       <c r="L26" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="N26" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="M26" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="N26" s="26" t="s">
-        <v>270</v>
-      </c>
       <c r="O26" s="10" t="s">
         <v>125</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>225</v>
+        <v>26</v>
       </c>
       <c r="Q26" s="17" t="b">
         <v>1</v>
@@ -6738,13 +6736,13 @@
     </row>
     <row r="27" ht="16.35" customHeight="1" spans="1:18">
       <c r="A27" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>271</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>273</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>20</v>
@@ -6753,10 +6751,10 @@
         <v>117</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>234</v>
+        <v>129</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>235</v>
+        <v>119</v>
       </c>
       <c r="H27" s="17" t="b">
         <v>0</v>
@@ -6769,19 +6767,19 @@
       </c>
       <c r="K27" s="10"/>
       <c r="L27" s="9" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N27" s="26" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O27" s="10" t="s">
         <v>125</v>
       </c>
       <c r="P27" s="10" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="Q27" s="17" t="b">
         <v>1</v>
@@ -6790,13 +6788,13 @@
     </row>
     <row r="28" ht="16.35" customHeight="1" spans="1:18">
       <c r="A28" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>276</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>278</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>20</v>
@@ -6805,10 +6803,10 @@
         <v>117</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>129</v>
+        <v>234</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>119</v>
+        <v>235</v>
       </c>
       <c r="H28" s="17" t="b">
         <v>0</v>
@@ -6821,13 +6819,13 @@
       </c>
       <c r="K28" s="10"/>
       <c r="L28" s="9" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="N28" s="26" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O28" s="10" t="s">
         <v>125</v>
@@ -6842,13 +6840,13 @@
     </row>
     <row r="29" ht="16.35" customHeight="1" spans="1:18">
       <c r="A29" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>281</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>283</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>20</v>
@@ -6857,10 +6855,10 @@
         <v>117</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>234</v>
+        <v>129</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>235</v>
+        <v>119</v>
       </c>
       <c r="H29" s="17" t="b">
         <v>0</v>
@@ -6873,34 +6871,34 @@
       </c>
       <c r="K29" s="10"/>
       <c r="L29" s="9" t="s">
-        <v>193</v>
+        <v>282</v>
       </c>
       <c r="M29" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="N29" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="N29" s="26" t="s">
-        <v>285</v>
-      </c>
       <c r="O29" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="P29" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q29" s="17" t="b">
-        <v>1</v>
+      <c r="P29" s="10">
+        <v>35</v>
+      </c>
+      <c r="Q29" s="17" t="s">
+        <v>167</v>
       </c>
       <c r="R29" s="5"/>
     </row>
     <row r="30" ht="16.35" customHeight="1" spans="1:18">
       <c r="A30" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="C30" s="9" t="s">
         <v>287</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>288</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>20</v>
@@ -6909,10 +6907,10 @@
         <v>117</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>129</v>
+        <v>234</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>119</v>
+        <v>235</v>
       </c>
       <c r="H30" s="17" t="b">
         <v>0</v>
@@ -6925,22 +6923,22 @@
       </c>
       <c r="K30" s="10"/>
       <c r="L30" s="9" t="s">
-        <v>257</v>
+        <v>138</v>
       </c>
       <c r="M30" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="N30" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="N30" s="26" t="s">
-        <v>290</v>
-      </c>
       <c r="O30" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="P30" s="10">
-        <v>35</v>
-      </c>
-      <c r="Q30" s="17" t="s">
-        <v>167</v>
+      <c r="P30" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q30" s="17" t="b">
+        <v>1</v>
       </c>
       <c r="R30" s="5"/>
     </row>
@@ -6949,10 +6947,10 @@
         <v>225</v>
       </c>
       <c r="B31" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>291</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>292</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>20</v>
@@ -6961,10 +6959,10 @@
         <v>117</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>234</v>
+        <v>292</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>235</v>
+        <v>293</v>
       </c>
       <c r="H31" s="17" t="b">
         <v>0</v>
@@ -6980,16 +6978,16 @@
         <v>138</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N31" s="26" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O31" s="10" t="s">
         <v>125</v>
       </c>
       <c r="P31" s="10" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="Q31" s="17" t="b">
         <v>1</v>
@@ -7001,10 +6999,10 @@
         <v>79</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>20</v>
@@ -7013,10 +7011,10 @@
         <v>117</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>297</v>
+        <v>234</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>298</v>
+        <v>235</v>
       </c>
       <c r="H32" s="17" t="b">
         <v>0</v>
@@ -7032,16 +7030,16 @@
         <v>138</v>
       </c>
       <c r="M32" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="N32" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="N32" s="26" t="s">
-        <v>300</v>
-      </c>
       <c r="O32" s="10" t="s">
         <v>125</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="Q32" s="17" t="b">
         <v>1</v>
@@ -7053,10 +7051,10 @@
         <v>82</v>
       </c>
       <c r="B33" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>301</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>302</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>20</v>
@@ -7065,10 +7063,10 @@
         <v>117</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>234</v>
+        <v>302</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>235</v>
+        <v>303</v>
       </c>
       <c r="H33" s="17" t="b">
         <v>0</v>
@@ -7081,19 +7079,19 @@
       </c>
       <c r="K33" s="10"/>
       <c r="L33" s="9" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N33" s="26" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O33" s="10" t="s">
         <v>125</v>
       </c>
       <c r="P33" s="10" t="s">
-        <v>126</v>
+        <v>306</v>
       </c>
       <c r="Q33" s="17" t="b">
         <v>1</v>
@@ -7105,10 +7103,10 @@
         <v>85</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>20</v>
@@ -7117,10 +7115,10 @@
         <v>117</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>307</v>
+        <v>129</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>308</v>
+        <v>119</v>
       </c>
       <c r="H34" s="17" t="b">
         <v>0</v>
@@ -7133,7 +7131,7 @@
       </c>
       <c r="K34" s="10"/>
       <c r="L34" s="9" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="M34" s="5" t="s">
         <v>309</v>
@@ -7145,7 +7143,7 @@
         <v>125</v>
       </c>
       <c r="P34" s="10" t="s">
-        <v>311</v>
+        <v>225</v>
       </c>
       <c r="Q34" s="17" t="b">
         <v>1</v>
@@ -7157,10 +7155,10 @@
         <v>88</v>
       </c>
       <c r="B35" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>312</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>313</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>20</v>
@@ -7185,19 +7183,19 @@
       </c>
       <c r="K35" s="10"/>
       <c r="L35" s="9" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="M35" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="N35" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="N35" s="26" t="s">
-        <v>315</v>
-      </c>
       <c r="O35" s="10" t="s">
         <v>125</v>
       </c>
       <c r="P35" s="10" t="s">
-        <v>225</v>
+        <v>134</v>
       </c>
       <c r="Q35" s="17" t="b">
         <v>1</v>
@@ -7209,10 +7207,10 @@
         <v>91</v>
       </c>
       <c r="B36" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>316</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>317</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>20</v>
@@ -7237,19 +7235,19 @@
       </c>
       <c r="K36" s="10"/>
       <c r="L36" s="9" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="M36" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N36" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="N36" s="26" t="s">
-        <v>319</v>
-      </c>
       <c r="O36" s="10" t="s">
         <v>125</v>
       </c>
       <c r="P36" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="Q36" s="17" t="b">
         <v>1</v>
@@ -7258,13 +7256,13 @@
     </row>
     <row r="37" ht="16.35" customHeight="1" spans="1:18">
       <c r="A37" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="C37" s="9" t="s">
         <v>321</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>322</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>20</v>
@@ -7273,10 +7271,10 @@
         <v>117</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>129</v>
+        <v>256</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>119</v>
+        <v>257</v>
       </c>
       <c r="H37" s="17" t="b">
         <v>0</v>
@@ -7289,34 +7287,34 @@
       </c>
       <c r="K37" s="10"/>
       <c r="L37" s="9" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="M37" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="N37" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="N37" s="26" t="s">
-        <v>324</v>
-      </c>
       <c r="O37" s="10" t="s">
         <v>125</v>
       </c>
       <c r="P37" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q37" s="17" t="b">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="Q37" s="17" t="s">
+        <v>167</v>
       </c>
       <c r="R37" s="5"/>
     </row>
     <row r="38" ht="16.35" customHeight="1" spans="1:18">
       <c r="A38" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="C38" s="9" t="s">
         <v>326</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>327</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>20</v>
@@ -7325,10 +7323,10 @@
         <v>117</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>262</v>
+        <v>129</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>263</v>
+        <v>119</v>
       </c>
       <c r="H38" s="17" t="b">
         <v>0</v>
@@ -7344,31 +7342,31 @@
         <v>138</v>
       </c>
       <c r="M38" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="N38" s="26" t="s">
         <v>328</v>
       </c>
-      <c r="N38" s="26" t="s">
-        <v>329</v>
-      </c>
       <c r="O38" s="10" t="s">
         <v>125</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q38" s="17" t="s">
-        <v>167</v>
+        <v>126</v>
+      </c>
+      <c r="Q38" s="17" t="b">
+        <v>1</v>
       </c>
       <c r="R38" s="5"/>
     </row>
     <row r="39" ht="16.35" customHeight="1" spans="1:18">
       <c r="A39" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="C39" s="9" t="s">
         <v>331</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>332</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>20</v>
@@ -7377,10 +7375,10 @@
         <v>117</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>129</v>
+        <v>256</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>119</v>
+        <v>257</v>
       </c>
       <c r="H39" s="17" t="b">
         <v>0</v>
@@ -7393,7 +7391,7 @@
       </c>
       <c r="K39" s="10"/>
       <c r="L39" s="9" t="s">
-        <v>138</v>
+        <v>332</v>
       </c>
       <c r="M39" s="5" t="s">
         <v>333</v>
@@ -7405,7 +7403,7 @@
         <v>125</v>
       </c>
       <c r="P39" s="10" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="Q39" s="17" t="b">
         <v>1</v>
@@ -7429,10 +7427,10 @@
         <v>117</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>262</v>
+        <v>129</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>263</v>
+        <v>119</v>
       </c>
       <c r="H40" s="17" t="b">
         <v>0</v>
@@ -7445,19 +7443,19 @@
       </c>
       <c r="K40" s="10"/>
       <c r="L40" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="M40" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="M40" s="5" t="s">
+      <c r="N40" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="N40" s="26" t="s">
-        <v>340</v>
-      </c>
       <c r="O40" s="10" t="s">
         <v>125</v>
       </c>
       <c r="P40" s="10" t="s">
-        <v>26</v>
+        <v>225</v>
       </c>
       <c r="Q40" s="17" t="b">
         <v>1</v>
@@ -7469,10 +7467,10 @@
         <v>212</v>
       </c>
       <c r="B41" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>341</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>342</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>20</v>
@@ -7481,7 +7479,7 @@
         <v>117</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>119</v>
@@ -7497,34 +7495,34 @@
       </c>
       <c r="K41" s="10"/>
       <c r="L41" s="9" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="M41" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="N41" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="N41" s="26" t="s">
-        <v>344</v>
-      </c>
       <c r="O41" s="10" t="s">
         <v>125</v>
       </c>
       <c r="P41" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q41" s="17" t="b">
-        <v>1</v>
+        <v>126</v>
+      </c>
+      <c r="Q41" s="17" t="s">
+        <v>167</v>
       </c>
       <c r="R41" s="5"/>
     </row>
     <row r="42" ht="16.35" customHeight="1" spans="1:18">
       <c r="A42" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="C42" s="9" t="s">
         <v>346</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>347</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>20</v>
@@ -7533,10 +7531,10 @@
         <v>117</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>118</v>
+        <v>302</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>119</v>
+        <v>303</v>
       </c>
       <c r="H42" s="17" t="b">
         <v>0</v>
@@ -7552,70 +7550,72 @@
         <v>138</v>
       </c>
       <c r="M42" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="N42" s="26" t="s">
         <v>348</v>
       </c>
-      <c r="N42" s="26" t="s">
+      <c r="O42" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="P42" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q42" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="R42" s="5"/>
+    </row>
+    <row r="43" customFormat="1" ht="20" customHeight="1" spans="1:18">
+      <c r="A43" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="O42" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="P42" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q42" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="R42" s="5"/>
-    </row>
-    <row r="43" ht="16.35" customHeight="1" spans="1:18">
-      <c r="A43" s="6" t="s">
+      <c r="B43" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="C43" s="11" t="s">
         <v>351</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>352</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>307</v>
+      <c r="E43" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>234</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="H43" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="K43" s="10"/>
-      <c r="L43" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="M43" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H43" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="K43" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="L43" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="M43" s="27" t="s">
         <v>353</v>
       </c>
-      <c r="N43" s="26" t="s">
+      <c r="N43" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="O43" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="P43" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q43" s="17" t="s">
+      <c r="O43" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="P43" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q43" s="19" t="s">
         <v>167</v>
       </c>
       <c r="R43" s="5"/>
@@ -7944,7 +7944,7 @@
     </row>
     <row r="51" ht="16.35" customHeight="1" spans="1:18">
       <c r="A51" s="6" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>382</v>
@@ -8864,7 +8864,7 @@
     </row>
     <row r="71" ht="18" spans="1:18">
       <c r="A71" s="6" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B71" s="30" t="s">
         <v>458</v>
@@ -9324,7 +9324,7 @@
     </row>
     <row r="81" ht="36" spans="1:18">
       <c r="A81" s="6" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B81" s="30" t="s">
         <v>493</v>
@@ -9784,7 +9784,7 @@
     </row>
     <row r="91" ht="18" spans="1:18">
       <c r="A91" s="6" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B91" s="31" t="s">
         <v>531</v>
@@ -14531,7 +14531,7 @@
         <v>117</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G192" s="5" t="s">
         <v>933</v>
@@ -15229,7 +15229,7 @@
         <v>117</v>
       </c>
       <c r="F205" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G205" s="10" t="s">
         <v>1019</v>
@@ -15387,7 +15387,7 @@
         <v>117</v>
       </c>
       <c r="F208" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G208" s="10" t="s">
         <v>1039</v>
@@ -15543,7 +15543,7 @@
         <v>117</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G211" s="5" t="s">
         <v>1019</v>
@@ -15595,7 +15595,7 @@
         <v>117</v>
       </c>
       <c r="F212" s="44" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G212" s="5" t="s">
         <v>933</v>
@@ -15647,7 +15647,7 @@
         <v>117</v>
       </c>
       <c r="F213" s="44" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G213" s="5" t="s">
         <v>933</v>
@@ -15751,7 +15751,7 @@
         <v>117</v>
       </c>
       <c r="F215" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G215" s="6" t="s">
         <v>1019</v>
@@ -15799,7 +15799,7 @@
         <v>117</v>
       </c>
       <c r="F216" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G216" s="6" t="s">
         <v>1019</v>
@@ -15847,7 +15847,7 @@
         <v>117</v>
       </c>
       <c r="F217" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G217" s="6" t="s">
         <v>1019</v>
@@ -15895,7 +15895,7 @@
         <v>117</v>
       </c>
       <c r="F218" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G218" s="6" t="s">
         <v>1019</v>
@@ -15943,7 +15943,7 @@
         <v>117</v>
       </c>
       <c r="F219" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G219" s="6" t="s">
         <v>1019</v>
@@ -15991,7 +15991,7 @@
         <v>117</v>
       </c>
       <c r="F220" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G220" s="6" t="s">
         <v>1019</v>
@@ -16039,7 +16039,7 @@
         <v>117</v>
       </c>
       <c r="F221" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G221" s="6" t="s">
         <v>1019</v>

--- a/data/menu_afternoon_tea.xlsx
+++ b/data/menu_afternoon_tea.xlsx
@@ -399,10 +399,10 @@
     <t>25</t>
   </si>
   <si>
-    <t>Tell you a secret</t>
-  </si>
-  <si>
-    <t>告诉你个秘密</t>
+    <t>Soulmate</t>
+  </si>
+  <si>
+    <t>灵魂伴侣</t>
   </si>
   <si>
     <t>88</t>
@@ -5319,8 +5319,8 @@
   <sheetPr/>
   <dimension ref="A1:AB221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A43" sqref="$A43:$XFD43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
